--- a/Synthèse-Experiences/ExperimentsMAJ20juillet11h.xlsx
+++ b/Synthèse-Experiences/ExperimentsMAJ20juillet11h.xlsx
@@ -550,7 +550,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -671,6 +671,29 @@
       <strike/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1130,7 +1153,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1431,6 +1454,131 @@
     <xf numFmtId="0" fontId="6" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="14" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1458,129 +1606,77 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="14" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4376,10 +4472,10 @@
   <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="76" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G69" sqref="G69"/>
+      <selection pane="bottomRight" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4422,73 +4518,73 @@
       <c r="J1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="106" t="s">
+      <c r="K1" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="106"/>
+      <c r="L1" s="149"/>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="P1" s="31"/>
-      <c r="Q1" s="108" t="s">
+      <c r="Q1" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="109" t="s">
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="110" t="s">
+      <c r="V1" s="152"/>
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
+      <c r="Z1" s="153"/>
+      <c r="AA1" s="153"/>
+      <c r="AB1" s="153"/>
       <c r="AD1" s="43" t="s">
         <v>68</v>
       </c>
       <c r="AE1" s="43"/>
     </row>
     <row r="2" spans="1:34" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M2" s="111" t="s">
+      <c r="M2" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
       <c r="P2" s="31"/>
-      <c r="Q2" s="112" t="s">
+      <c r="Q2" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112" t="s">
+      <c r="R2" s="155"/>
+      <c r="S2" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="112"/>
-      <c r="U2" s="113" t="s">
+      <c r="T2" s="155"/>
+      <c r="U2" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113" t="s">
+      <c r="V2" s="156"/>
+      <c r="W2" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="114" t="s">
+      <c r="X2" s="156"/>
+      <c r="Y2" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="114"/>
-      <c r="AA2" s="114" t="s">
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="114"/>
-      <c r="AC2" s="107" t="s">
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="150"/>
     </row>
     <row r="3" spans="1:34" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
@@ -5201,7 +5297,7 @@
       <c r="AG10" s="88"/>
       <c r="AH10" s="89"/>
     </row>
-    <row r="11" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <v>8</v>
       </c>
@@ -5387,7 +5483,7 @@
       <c r="AG12" s="88"/>
       <c r="AH12" s="89"/>
     </row>
-    <row r="13" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>10</v>
       </c>
@@ -5475,7 +5571,7 @@
       <c r="AG13" s="88"/>
       <c r="AH13" s="89"/>
     </row>
-    <row r="14" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <v>11</v>
       </c>
@@ -6147,7 +6243,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="29">
         <v>18</v>
       </c>
@@ -7211,361 +7307,361 @@
       <c r="AG32" s="101"/>
       <c r="AH32" s="89"/>
     </row>
-    <row r="33" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="79">
+    <row r="33" spans="1:34" s="170" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="158">
         <v>31</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="66">
+      <c r="C33" s="160">
         <v>2.7300000000000009</v>
       </c>
-      <c r="D33" s="59">
+      <c r="D33" s="161">
         <f t="shared" si="0"/>
         <v>42558</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="162">
         <v>5</v>
       </c>
-      <c r="H33" s="84" t="s">
+      <c r="H33" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="I33" s="37">
+      <c r="I33" s="164">
         <v>20</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="J33" s="162" t="s">
         <v>94</v>
       </c>
-      <c r="K33" s="37">
+      <c r="K33" s="164">
         <v>10</v>
       </c>
-      <c r="L33" s="37">
+      <c r="L33" s="164">
         <v>0.68200000000000005</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="162">
         <v>0.01</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="162">
         <v>30000</v>
       </c>
-      <c r="O33" s="33">
+      <c r="O33" s="165">
         <v>2000</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P33" s="162">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37">
+      <c r="Q33" s="164"/>
+      <c r="R33" s="164">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37">
+      <c r="S33" s="164"/>
+      <c r="T33" s="164">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37">
+      <c r="U33" s="164"/>
+      <c r="V33" s="164">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37">
+      <c r="W33" s="164"/>
+      <c r="X33" s="164">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37">
+      <c r="Y33" s="164"/>
+      <c r="Z33" s="164">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA33" s="37"/>
-      <c r="AB33" s="37">
+      <c r="AA33" s="164"/>
+      <c r="AB33" s="164">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="103"/>
-      <c r="AG33" s="95" t="s">
+      <c r="AC33" s="166"/>
+      <c r="AD33" s="166"/>
+      <c r="AE33" s="166"/>
+      <c r="AF33" s="167"/>
+      <c r="AG33" s="168" t="s">
         <v>130</v>
       </c>
-      <c r="AH33" s="104" t="s">
+      <c r="AH33" s="169" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="79">
+    <row r="34" spans="1:34" s="170" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="158">
         <v>32</v>
       </c>
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="66">
+      <c r="C34" s="160">
         <v>2.729000000000001</v>
       </c>
-      <c r="D34" s="59">
+      <c r="D34" s="161">
         <f t="shared" si="0"/>
         <v>42558</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="162">
         <v>5</v>
       </c>
-      <c r="H34" s="84" t="s">
+      <c r="H34" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34" s="164">
         <v>10</v>
       </c>
-      <c r="J34" s="13" t="s">
+      <c r="J34" s="162" t="s">
         <v>94</v>
       </c>
-      <c r="K34" s="37">
+      <c r="K34" s="164">
         <v>20</v>
       </c>
-      <c r="L34" s="37">
+      <c r="L34" s="164">
         <v>0.59699999999999998</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="162">
         <v>0.01</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N34" s="162">
         <v>30000</v>
       </c>
-      <c r="O34" s="33">
+      <c r="O34" s="165">
         <v>2000</v>
       </c>
-      <c r="P34" s="13">
+      <c r="P34" s="162">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37">
+      <c r="Q34" s="164"/>
+      <c r="R34" s="164">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37">
+      <c r="S34" s="164"/>
+      <c r="T34" s="164">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37">
+      <c r="U34" s="164"/>
+      <c r="V34" s="164">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37">
+      <c r="W34" s="164"/>
+      <c r="X34" s="164">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37">
+      <c r="Y34" s="164"/>
+      <c r="Z34" s="164">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="37">
+      <c r="AA34" s="164"/>
+      <c r="AB34" s="164">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28"/>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="103"/>
-      <c r="AG34" s="95" t="s">
+      <c r="AC34" s="166"/>
+      <c r="AD34" s="166"/>
+      <c r="AE34" s="166"/>
+      <c r="AF34" s="167"/>
+      <c r="AG34" s="168" t="s">
         <v>131</v>
       </c>
-      <c r="AH34" s="104" t="s">
+      <c r="AH34" s="169" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="79">
+    <row r="35" spans="1:34" s="170" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="158">
         <v>33</v>
       </c>
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="66">
+      <c r="C35" s="160">
         <v>2.7280000000000011</v>
       </c>
-      <c r="D35" s="59">
+      <c r="D35" s="161">
         <f t="shared" si="0"/>
         <v>42558</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="162">
         <v>5</v>
       </c>
-      <c r="H35" s="84" t="s">
+      <c r="H35" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="I35" s="37">
+      <c r="I35" s="164">
         <v>6.6666699999999999</v>
       </c>
-      <c r="J35" s="13" t="s">
+      <c r="J35" s="162" t="s">
         <v>94</v>
       </c>
-      <c r="K35" s="37">
+      <c r="K35" s="164">
         <v>30</v>
       </c>
-      <c r="L35" s="37">
+      <c r="L35" s="164">
         <v>0.45800000000000002</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="162">
         <v>0.01</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="162">
         <v>30000</v>
       </c>
-      <c r="O35" s="33">
+      <c r="O35" s="165">
         <v>2000</v>
       </c>
-      <c r="P35" s="13">
+      <c r="P35" s="162">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37">
+      <c r="Q35" s="164"/>
+      <c r="R35" s="164">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37">
+      <c r="S35" s="164"/>
+      <c r="T35" s="164">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37">
+      <c r="U35" s="164"/>
+      <c r="V35" s="164">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37">
+      <c r="W35" s="164"/>
+      <c r="X35" s="164">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37">
+      <c r="Y35" s="164"/>
+      <c r="Z35" s="164">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA35" s="37"/>
-      <c r="AB35" s="37">
+      <c r="AA35" s="164"/>
+      <c r="AB35" s="164">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="28"/>
-      <c r="AF35" s="103"/>
-      <c r="AG35" s="88"/>
-      <c r="AH35" s="104"/>
+      <c r="AC35" s="166"/>
+      <c r="AD35" s="166"/>
+      <c r="AE35" s="166"/>
+      <c r="AF35" s="167"/>
+      <c r="AG35" s="171"/>
+      <c r="AH35" s="169"/>
     </row>
-    <row r="36" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="79">
+    <row r="36" spans="1:34" s="170" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="158">
         <v>34</v>
       </c>
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="66">
+      <c r="C36" s="160">
         <v>2.7270000000000012</v>
       </c>
-      <c r="D36" s="59">
+      <c r="D36" s="161">
         <f t="shared" si="0"/>
         <v>42558</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="162">
         <v>5</v>
       </c>
-      <c r="H36" s="84" t="s">
+      <c r="H36" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="I36" s="37">
+      <c r="I36" s="164">
         <v>4</v>
       </c>
-      <c r="J36" s="13" t="s">
+      <c r="J36" s="162" t="s">
         <v>94</v>
       </c>
-      <c r="K36" s="37">
+      <c r="K36" s="164">
         <v>50</v>
       </c>
-      <c r="L36" s="37">
+      <c r="L36" s="164">
         <v>0.52600000000000002</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M36" s="162">
         <v>0.01</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N36" s="162">
         <v>30000</v>
       </c>
-      <c r="O36" s="33">
+      <c r="O36" s="165">
         <v>2000</v>
       </c>
-      <c r="P36" s="13">
+      <c r="P36" s="162">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37">
+      <c r="Q36" s="164"/>
+      <c r="R36" s="164">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37">
+      <c r="S36" s="164"/>
+      <c r="T36" s="164">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37">
+      <c r="U36" s="164"/>
+      <c r="V36" s="164">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37">
+      <c r="W36" s="164"/>
+      <c r="X36" s="164">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="37">
+      <c r="Y36" s="164"/>
+      <c r="Z36" s="164">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA36" s="37"/>
-      <c r="AB36" s="37">
+      <c r="AA36" s="164"/>
+      <c r="AB36" s="164">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28"/>
-      <c r="AE36" s="28"/>
-      <c r="AF36" s="105"/>
-      <c r="AG36" s="88"/>
-      <c r="AH36" s="104"/>
+      <c r="AC36" s="166"/>
+      <c r="AD36" s="166"/>
+      <c r="AE36" s="166"/>
+      <c r="AF36" s="172"/>
+      <c r="AG36" s="171"/>
+      <c r="AH36" s="169"/>
     </row>
     <row r="37" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="79">
@@ -7654,2369 +7750,2369 @@
       <c r="AG37" s="88"/>
       <c r="AH37" s="104"/>
     </row>
-    <row r="38" spans="1:34" s="127" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="115">
+    <row r="38" spans="1:34" s="118" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="106">
         <v>36</v>
       </c>
-      <c r="B38" s="116">
+      <c r="B38" s="107">
         <v>2.7309999999999999</v>
       </c>
-      <c r="C38" s="117">
+      <c r="C38" s="108">
         <v>2.7120000000000002</v>
       </c>
-      <c r="D38" s="118" t="s">
+      <c r="D38" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="119" t="s">
+      <c r="E38" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="F38" s="119" t="s">
+      <c r="F38" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="120">
+      <c r="G38" s="111">
         <v>10</v>
       </c>
-      <c r="H38" s="121" t="s">
+      <c r="H38" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="I38" s="120">
+      <c r="I38" s="111">
         <v>1</v>
       </c>
-      <c r="J38" s="119" t="s">
+      <c r="J38" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="K38" s="120">
+      <c r="K38" s="111">
         <v>20</v>
       </c>
-      <c r="L38" s="120">
+      <c r="L38" s="111">
         <v>7.27</v>
       </c>
-      <c r="M38" s="120">
+      <c r="M38" s="111">
         <v>0.5</v>
       </c>
-      <c r="N38" s="120"/>
-      <c r="O38" s="122"/>
-      <c r="P38" s="119"/>
-      <c r="Q38" s="120"/>
-      <c r="R38" s="120">
+      <c r="N38" s="111"/>
+      <c r="O38" s="113"/>
+      <c r="P38" s="110"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="111">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S38" s="120"/>
-      <c r="T38" s="120">
+      <c r="S38" s="111"/>
+      <c r="T38" s="111">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U38" s="120"/>
-      <c r="V38" s="120">
+      <c r="U38" s="111"/>
+      <c r="V38" s="111">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W38" s="120"/>
-      <c r="X38" s="120">
+      <c r="W38" s="111"/>
+      <c r="X38" s="111">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y38" s="120"/>
-      <c r="Z38" s="120">
+      <c r="Y38" s="111"/>
+      <c r="Z38" s="111">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA38" s="120"/>
-      <c r="AB38" s="120">
+      <c r="AA38" s="111"/>
+      <c r="AB38" s="111">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC38" s="123"/>
-      <c r="AD38" s="123"/>
-      <c r="AE38" s="123"/>
-      <c r="AF38" s="124"/>
-      <c r="AG38" s="125"/>
-      <c r="AH38" s="126"/>
+      <c r="AC38" s="114"/>
+      <c r="AD38" s="114"/>
+      <c r="AE38" s="114"/>
+      <c r="AF38" s="115"/>
+      <c r="AG38" s="116"/>
+      <c r="AH38" s="117"/>
     </row>
-    <row r="39" spans="1:34" s="127" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="115">
+    <row r="39" spans="1:34" s="118" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="106">
         <v>37</v>
       </c>
-      <c r="B39" s="116">
+      <c r="B39" s="107">
         <v>2.7309999999999999</v>
       </c>
-      <c r="C39" s="117">
+      <c r="C39" s="108">
         <v>2.7130000000000001</v>
       </c>
-      <c r="D39" s="118" t="s">
+      <c r="D39" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="119" t="s">
+      <c r="E39" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="F39" s="119" t="s">
+      <c r="F39" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="120">
+      <c r="G39" s="111">
         <v>10</v>
       </c>
-      <c r="H39" s="121" t="s">
+      <c r="H39" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="I39" s="120">
+      <c r="I39" s="111">
         <v>1</v>
       </c>
-      <c r="J39" s="119" t="s">
+      <c r="J39" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="K39" s="120">
+      <c r="K39" s="111">
         <v>20</v>
       </c>
-      <c r="L39" s="120">
+      <c r="L39" s="111">
         <v>7.0350000000000001</v>
       </c>
-      <c r="M39" s="120">
+      <c r="M39" s="111">
         <v>0.1</v>
       </c>
-      <c r="N39" s="120"/>
-      <c r="O39" s="122"/>
-      <c r="P39" s="119"/>
-      <c r="Q39" s="120"/>
-      <c r="R39" s="120">
+      <c r="N39" s="111"/>
+      <c r="O39" s="113"/>
+      <c r="P39" s="110"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="111">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S39" s="120"/>
-      <c r="T39" s="120">
+      <c r="S39" s="111"/>
+      <c r="T39" s="111">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U39" s="120"/>
-      <c r="V39" s="120">
+      <c r="U39" s="111"/>
+      <c r="V39" s="111">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W39" s="120"/>
-      <c r="X39" s="120">
+      <c r="W39" s="111"/>
+      <c r="X39" s="111">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y39" s="120"/>
-      <c r="Z39" s="120">
+      <c r="Y39" s="111"/>
+      <c r="Z39" s="111">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA39" s="120"/>
-      <c r="AB39" s="120">
+      <c r="AA39" s="111"/>
+      <c r="AB39" s="111">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC39" s="123"/>
-      <c r="AD39" s="123"/>
-      <c r="AE39" s="123"/>
-      <c r="AF39" s="124"/>
-      <c r="AG39" s="125"/>
-      <c r="AH39" s="126"/>
+      <c r="AC39" s="114"/>
+      <c r="AD39" s="114"/>
+      <c r="AE39" s="114"/>
+      <c r="AF39" s="115"/>
+      <c r="AG39" s="116"/>
+      <c r="AH39" s="117"/>
     </row>
-    <row r="40" spans="1:34" s="127" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="115">
+    <row r="40" spans="1:34" s="118" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="106">
         <v>38</v>
       </c>
-      <c r="B40" s="116">
+      <c r="B40" s="107">
         <v>2.7309999999999999</v>
       </c>
-      <c r="C40" s="117">
+      <c r="C40" s="108">
         <v>2.714</v>
       </c>
-      <c r="D40" s="118" t="s">
+      <c r="D40" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="119" t="s">
+      <c r="E40" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="F40" s="119" t="s">
+      <c r="F40" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="120">
+      <c r="G40" s="111">
         <v>10</v>
       </c>
-      <c r="H40" s="121" t="s">
+      <c r="H40" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="I40" s="128">
+      <c r="I40" s="119">
         <v>1</v>
       </c>
-      <c r="J40" s="119" t="s">
+      <c r="J40" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="K40" s="128">
+      <c r="K40" s="119">
         <v>20</v>
       </c>
-      <c r="L40" s="128">
+      <c r="L40" s="119">
         <v>7.2149999999999999</v>
       </c>
-      <c r="M40" s="129">
+      <c r="M40" s="120">
         <v>0.05</v>
       </c>
-      <c r="N40" s="129"/>
-      <c r="O40" s="130"/>
-      <c r="P40" s="128"/>
-      <c r="Q40" s="129"/>
-      <c r="R40" s="115">
+      <c r="N40" s="120"/>
+      <c r="O40" s="121"/>
+      <c r="P40" s="119"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S40" s="129"/>
-      <c r="T40" s="115">
+      <c r="S40" s="120"/>
+      <c r="T40" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U40" s="129"/>
-      <c r="V40" s="115">
+      <c r="U40" s="120"/>
+      <c r="V40" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W40" s="129"/>
-      <c r="X40" s="115">
+      <c r="W40" s="120"/>
+      <c r="X40" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y40" s="129"/>
-      <c r="Z40" s="115">
+      <c r="Y40" s="120"/>
+      <c r="Z40" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA40" s="129"/>
-      <c r="AB40" s="115">
+      <c r="AA40" s="120"/>
+      <c r="AB40" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC40" s="129"/>
-      <c r="AD40" s="123"/>
-      <c r="AE40" s="123"/>
-      <c r="AF40" s="131"/>
-      <c r="AG40" s="125"/>
-      <c r="AH40" s="126"/>
+      <c r="AC40" s="120"/>
+      <c r="AD40" s="114"/>
+      <c r="AE40" s="114"/>
+      <c r="AF40" s="122"/>
+      <c r="AG40" s="116"/>
+      <c r="AH40" s="117"/>
     </row>
-    <row r="41" spans="1:34" s="127" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="115">
+    <row r="41" spans="1:34" s="118" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="106">
         <v>39</v>
       </c>
-      <c r="B41" s="116">
+      <c r="B41" s="107">
         <v>2.7309999999999999</v>
       </c>
-      <c r="C41" s="117">
+      <c r="C41" s="108">
         <v>2.7149999999999999</v>
       </c>
-      <c r="D41" s="118" t="s">
+      <c r="D41" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="119" t="s">
+      <c r="E41" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="F41" s="119" t="s">
+      <c r="F41" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="120">
+      <c r="G41" s="111">
         <v>10</v>
       </c>
-      <c r="H41" s="132" t="s">
+      <c r="H41" s="123" t="s">
         <v>103</v>
       </c>
-      <c r="I41" s="128">
+      <c r="I41" s="119">
         <v>1</v>
       </c>
-      <c r="J41" s="119" t="s">
+      <c r="J41" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="K41" s="128">
+      <c r="K41" s="119">
         <v>20</v>
       </c>
-      <c r="L41" s="128">
+      <c r="L41" s="119">
         <v>7.2229999999999999</v>
       </c>
-      <c r="M41" s="129">
+      <c r="M41" s="120">
         <v>0.05</v>
       </c>
-      <c r="N41" s="129"/>
-      <c r="O41" s="130"/>
-      <c r="P41" s="128"/>
-      <c r="Q41" s="129"/>
-      <c r="R41" s="115">
+      <c r="N41" s="120"/>
+      <c r="O41" s="121"/>
+      <c r="P41" s="119"/>
+      <c r="Q41" s="120"/>
+      <c r="R41" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S41" s="129"/>
-      <c r="T41" s="115">
+      <c r="S41" s="120"/>
+      <c r="T41" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U41" s="129"/>
-      <c r="V41" s="115">
+      <c r="U41" s="120"/>
+      <c r="V41" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W41" s="129"/>
-      <c r="X41" s="115">
+      <c r="W41" s="120"/>
+      <c r="X41" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y41" s="129"/>
-      <c r="Z41" s="115">
+      <c r="Y41" s="120"/>
+      <c r="Z41" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA41" s="129"/>
-      <c r="AB41" s="115">
+      <c r="AA41" s="120"/>
+      <c r="AB41" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC41" s="129"/>
-      <c r="AD41" s="133"/>
-      <c r="AE41" s="133"/>
-      <c r="AF41" s="131"/>
-      <c r="AG41" s="125"/>
-      <c r="AH41" s="126"/>
+      <c r="AC41" s="120"/>
+      <c r="AD41" s="124"/>
+      <c r="AE41" s="124"/>
+      <c r="AF41" s="122"/>
+      <c r="AG41" s="116"/>
+      <c r="AH41" s="117"/>
     </row>
-    <row r="42" spans="1:34" s="127" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="115">
+    <row r="42" spans="1:34" s="118" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="106">
         <v>40</v>
       </c>
-      <c r="B42" s="116">
+      <c r="B42" s="107">
         <v>2.7309999999999999</v>
       </c>
-      <c r="C42" s="117">
+      <c r="C42" s="108">
         <v>2.7159999999999997</v>
       </c>
-      <c r="D42" s="118" t="s">
+      <c r="D42" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="E42" s="119" t="s">
+      <c r="E42" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="F42" s="119" t="s">
+      <c r="F42" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="120">
+      <c r="G42" s="111">
         <v>10</v>
       </c>
-      <c r="H42" s="132" t="s">
+      <c r="H42" s="123" t="s">
         <v>103</v>
       </c>
-      <c r="I42" s="128">
+      <c r="I42" s="119">
         <v>2</v>
       </c>
-      <c r="J42" s="119" t="s">
+      <c r="J42" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="K42" s="128">
+      <c r="K42" s="119">
         <v>1000</v>
       </c>
-      <c r="L42" s="128">
+      <c r="L42" s="119">
         <v>7.1159999999999997</v>
       </c>
-      <c r="M42" s="129">
+      <c r="M42" s="120">
         <v>1E-3</v>
       </c>
-      <c r="N42" s="129"/>
-      <c r="O42" s="130"/>
-      <c r="P42" s="128"/>
-      <c r="Q42" s="129"/>
-      <c r="R42" s="115">
+      <c r="N42" s="120"/>
+      <c r="O42" s="121"/>
+      <c r="P42" s="119"/>
+      <c r="Q42" s="120"/>
+      <c r="R42" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S42" s="129"/>
-      <c r="T42" s="115">
+      <c r="S42" s="120"/>
+      <c r="T42" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U42" s="129"/>
-      <c r="V42" s="115">
+      <c r="U42" s="120"/>
+      <c r="V42" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W42" s="129"/>
-      <c r="X42" s="115">
+      <c r="W42" s="120"/>
+      <c r="X42" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y42" s="129"/>
-      <c r="Z42" s="115">
+      <c r="Y42" s="120"/>
+      <c r="Z42" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA42" s="129"/>
-      <c r="AB42" s="115">
+      <c r="AA42" s="120"/>
+      <c r="AB42" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC42" s="129"/>
-      <c r="AD42" s="133"/>
-      <c r="AE42" s="133"/>
-      <c r="AF42" s="131"/>
-      <c r="AG42" s="125"/>
-      <c r="AH42" s="126"/>
+      <c r="AC42" s="120"/>
+      <c r="AD42" s="124"/>
+      <c r="AE42" s="124"/>
+      <c r="AF42" s="122"/>
+      <c r="AG42" s="116"/>
+      <c r="AH42" s="117"/>
     </row>
-    <row r="43" spans="1:34" s="127" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="115">
+    <row r="43" spans="1:34" s="118" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="106">
         <v>41</v>
       </c>
-      <c r="B43" s="116">
+      <c r="B43" s="107">
         <v>2.7309999999999999</v>
       </c>
-      <c r="C43" s="117">
+      <c r="C43" s="108">
         <v>2.7169999999999996</v>
       </c>
-      <c r="D43" s="118" t="s">
+      <c r="D43" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="E43" s="119" t="s">
+      <c r="E43" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="F43" s="119" t="s">
+      <c r="F43" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="120">
+      <c r="G43" s="111">
         <v>10</v>
       </c>
-      <c r="H43" s="134" t="s">
+      <c r="H43" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="I43" s="128">
+      <c r="I43" s="119">
         <v>2</v>
       </c>
-      <c r="J43" s="119" t="s">
+      <c r="J43" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="K43" s="128">
+      <c r="K43" s="119">
         <v>1000</v>
       </c>
-      <c r="L43" s="128">
+      <c r="L43" s="119">
         <v>7.2009999999999996</v>
       </c>
-      <c r="M43" s="129">
+      <c r="M43" s="120">
         <v>1E-3</v>
       </c>
-      <c r="N43" s="129"/>
-      <c r="O43" s="130"/>
-      <c r="P43" s="128"/>
-      <c r="Q43" s="129"/>
-      <c r="R43" s="115">
+      <c r="N43" s="120"/>
+      <c r="O43" s="121"/>
+      <c r="P43" s="119"/>
+      <c r="Q43" s="120"/>
+      <c r="R43" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S43" s="129"/>
-      <c r="T43" s="115">
+      <c r="S43" s="120"/>
+      <c r="T43" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U43" s="129"/>
-      <c r="V43" s="115">
+      <c r="U43" s="120"/>
+      <c r="V43" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W43" s="129"/>
-      <c r="X43" s="115">
+      <c r="W43" s="120"/>
+      <c r="X43" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y43" s="129"/>
-      <c r="Z43" s="115">
+      <c r="Y43" s="120"/>
+      <c r="Z43" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA43" s="129"/>
-      <c r="AB43" s="115">
+      <c r="AA43" s="120"/>
+      <c r="AB43" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC43" s="129"/>
-      <c r="AD43" s="133"/>
-      <c r="AE43" s="133"/>
-      <c r="AF43" s="131"/>
-      <c r="AG43" s="125"/>
-      <c r="AH43" s="135"/>
+      <c r="AC43" s="120"/>
+      <c r="AD43" s="124"/>
+      <c r="AE43" s="124"/>
+      <c r="AF43" s="122"/>
+      <c r="AG43" s="116"/>
+      <c r="AH43" s="126"/>
     </row>
-    <row r="44" spans="1:34" s="127" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="115">
+    <row r="44" spans="1:34" s="118" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="106">
         <v>42</v>
       </c>
-      <c r="B44" s="116">
+      <c r="B44" s="107">
         <v>2.7320000000000002</v>
       </c>
-      <c r="C44" s="117">
+      <c r="C44" s="108">
         <v>2.7169999999999996</v>
       </c>
-      <c r="D44" s="118" t="s">
+      <c r="D44" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="E44" s="119" t="s">
+      <c r="E44" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="F44" s="119" t="s">
+      <c r="F44" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G44" s="120">
+      <c r="G44" s="111">
         <v>10</v>
       </c>
-      <c r="H44" s="134" t="s">
+      <c r="H44" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="I44" s="128">
+      <c r="I44" s="119">
         <v>2</v>
       </c>
-      <c r="J44" s="119" t="s">
+      <c r="J44" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="K44" s="128">
+      <c r="K44" s="119">
         <v>5</v>
       </c>
-      <c r="L44" s="128">
+      <c r="L44" s="119">
         <v>7.109</v>
       </c>
-      <c r="M44" s="129">
+      <c r="M44" s="120">
         <v>0.2</v>
       </c>
-      <c r="N44" s="129"/>
-      <c r="O44" s="130"/>
-      <c r="P44" s="128"/>
-      <c r="Q44" s="129"/>
-      <c r="R44" s="115">
+      <c r="N44" s="120"/>
+      <c r="O44" s="121"/>
+      <c r="P44" s="119"/>
+      <c r="Q44" s="120"/>
+      <c r="R44" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S44" s="129"/>
-      <c r="T44" s="115">
+      <c r="S44" s="120"/>
+      <c r="T44" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U44" s="129"/>
-      <c r="V44" s="115">
+      <c r="U44" s="120"/>
+      <c r="V44" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W44" s="129"/>
-      <c r="X44" s="115">
+      <c r="W44" s="120"/>
+      <c r="X44" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y44" s="129"/>
-      <c r="Z44" s="115">
+      <c r="Y44" s="120"/>
+      <c r="Z44" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA44" s="129"/>
-      <c r="AB44" s="115">
+      <c r="AA44" s="120"/>
+      <c r="AB44" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC44" s="129"/>
-      <c r="AD44" s="133"/>
-      <c r="AE44" s="133"/>
-      <c r="AF44" s="131"/>
-      <c r="AG44" s="125"/>
-      <c r="AH44" s="135"/>
+      <c r="AC44" s="120"/>
+      <c r="AD44" s="124"/>
+      <c r="AE44" s="124"/>
+      <c r="AF44" s="122"/>
+      <c r="AG44" s="116"/>
+      <c r="AH44" s="126"/>
     </row>
-    <row r="45" spans="1:34" s="146" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="115">
+    <row r="45" spans="1:34" s="137" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="106">
         <v>43</v>
       </c>
-      <c r="B45" s="136"/>
-      <c r="C45" s="137"/>
-      <c r="D45" s="138" t="s">
+      <c r="B45" s="127"/>
+      <c r="C45" s="128"/>
+      <c r="D45" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="E45" s="139" t="s">
+      <c r="E45" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="F45" s="139" t="s">
+      <c r="F45" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="G45" s="140">
+      <c r="G45" s="131">
         <v>10</v>
       </c>
-      <c r="H45" s="141"/>
-      <c r="I45" s="142"/>
-      <c r="J45" s="139" t="s">
+      <c r="H45" s="132"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="K45" s="142"/>
-      <c r="L45" s="142"/>
-      <c r="M45" s="142"/>
-      <c r="N45" s="142"/>
-      <c r="O45" s="143"/>
-      <c r="P45" s="142"/>
-      <c r="Q45" s="142"/>
-      <c r="R45" s="141">
+      <c r="K45" s="133"/>
+      <c r="L45" s="133"/>
+      <c r="M45" s="133"/>
+      <c r="N45" s="133"/>
+      <c r="O45" s="134"/>
+      <c r="P45" s="133"/>
+      <c r="Q45" s="133"/>
+      <c r="R45" s="132">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S45" s="142"/>
-      <c r="T45" s="141">
+      <c r="S45" s="133"/>
+      <c r="T45" s="132">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U45" s="142"/>
-      <c r="V45" s="141">
+      <c r="U45" s="133"/>
+      <c r="V45" s="132">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W45" s="142"/>
-      <c r="X45" s="141">
+      <c r="W45" s="133"/>
+      <c r="X45" s="132">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y45" s="142"/>
-      <c r="Z45" s="141">
+      <c r="Y45" s="133"/>
+      <c r="Z45" s="132">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA45" s="142"/>
-      <c r="AB45" s="141">
+      <c r="AA45" s="133"/>
+      <c r="AB45" s="132">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC45" s="142"/>
-      <c r="AD45" s="144"/>
-      <c r="AE45" s="144"/>
-      <c r="AF45" s="145" t="s">
+      <c r="AC45" s="133"/>
+      <c r="AD45" s="135"/>
+      <c r="AE45" s="135"/>
+      <c r="AF45" s="136" t="s">
         <v>112</v>
       </c>
-      <c r="AG45" s="125"/>
-      <c r="AH45" s="135"/>
+      <c r="AG45" s="116"/>
+      <c r="AH45" s="126"/>
     </row>
-    <row r="46" spans="1:34" s="146" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="115">
+    <row r="46" spans="1:34" s="137" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="106">
         <v>44</v>
       </c>
-      <c r="B46" s="147"/>
-      <c r="C46" s="148"/>
-      <c r="D46" s="138" t="s">
+      <c r="B46" s="138"/>
+      <c r="C46" s="139"/>
+      <c r="D46" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="E46" s="139" t="s">
+      <c r="E46" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="F46" s="139" t="s">
+      <c r="F46" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="140">
+      <c r="G46" s="131">
         <v>10</v>
       </c>
-      <c r="H46" s="141"/>
-      <c r="I46" s="142"/>
-      <c r="J46" s="139" t="s">
+      <c r="H46" s="132"/>
+      <c r="I46" s="133"/>
+      <c r="J46" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="K46" s="142"/>
-      <c r="L46" s="142"/>
-      <c r="M46" s="142"/>
-      <c r="N46" s="142"/>
-      <c r="O46" s="143"/>
-      <c r="P46" s="142"/>
-      <c r="Q46" s="142"/>
-      <c r="R46" s="141">
+      <c r="K46" s="133"/>
+      <c r="L46" s="133"/>
+      <c r="M46" s="133"/>
+      <c r="N46" s="133"/>
+      <c r="O46" s="134"/>
+      <c r="P46" s="133"/>
+      <c r="Q46" s="133"/>
+      <c r="R46" s="132">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S46" s="142"/>
-      <c r="T46" s="141">
+      <c r="S46" s="133"/>
+      <c r="T46" s="132">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U46" s="142"/>
-      <c r="V46" s="141">
+      <c r="U46" s="133"/>
+      <c r="V46" s="132">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W46" s="142"/>
-      <c r="X46" s="141">
+      <c r="W46" s="133"/>
+      <c r="X46" s="132">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y46" s="142"/>
-      <c r="Z46" s="141">
+      <c r="Y46" s="133"/>
+      <c r="Z46" s="132">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA46" s="142"/>
-      <c r="AB46" s="141">
+      <c r="AA46" s="133"/>
+      <c r="AB46" s="132">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC46" s="142"/>
-      <c r="AD46" s="144"/>
-      <c r="AE46" s="144"/>
-      <c r="AF46" s="145" t="s">
+      <c r="AC46" s="133"/>
+      <c r="AD46" s="135"/>
+      <c r="AE46" s="135"/>
+      <c r="AF46" s="136" t="s">
         <v>112</v>
       </c>
-      <c r="AG46" s="125"/>
-      <c r="AH46" s="135"/>
+      <c r="AG46" s="116"/>
+      <c r="AH46" s="126"/>
     </row>
-    <row r="47" spans="1:34" s="146" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="115">
+    <row r="47" spans="1:34" s="137" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="106">
         <v>45</v>
       </c>
-      <c r="B47" s="147"/>
-      <c r="C47" s="148"/>
-      <c r="D47" s="138" t="s">
+      <c r="B47" s="138"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="E47" s="139" t="s">
+      <c r="E47" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="F47" s="139" t="s">
+      <c r="F47" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="140">
+      <c r="G47" s="131">
         <v>10</v>
       </c>
-      <c r="H47" s="141"/>
-      <c r="I47" s="142"/>
-      <c r="J47" s="139" t="s">
+      <c r="H47" s="132"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="K47" s="142"/>
-      <c r="L47" s="142"/>
-      <c r="M47" s="142"/>
-      <c r="N47" s="142"/>
-      <c r="O47" s="143"/>
-      <c r="P47" s="142"/>
-      <c r="Q47" s="142"/>
-      <c r="R47" s="141">
+      <c r="K47" s="133"/>
+      <c r="L47" s="133"/>
+      <c r="M47" s="133"/>
+      <c r="N47" s="133"/>
+      <c r="O47" s="134"/>
+      <c r="P47" s="133"/>
+      <c r="Q47" s="133"/>
+      <c r="R47" s="132">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S47" s="142"/>
-      <c r="T47" s="141">
+      <c r="S47" s="133"/>
+      <c r="T47" s="132">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U47" s="142"/>
-      <c r="V47" s="141">
+      <c r="U47" s="133"/>
+      <c r="V47" s="132">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W47" s="142"/>
-      <c r="X47" s="141">
+      <c r="W47" s="133"/>
+      <c r="X47" s="132">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y47" s="142"/>
-      <c r="Z47" s="141">
+      <c r="Y47" s="133"/>
+      <c r="Z47" s="132">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA47" s="142"/>
-      <c r="AB47" s="141">
+      <c r="AA47" s="133"/>
+      <c r="AB47" s="132">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC47" s="142"/>
-      <c r="AD47" s="144"/>
-      <c r="AE47" s="144"/>
-      <c r="AF47" s="145" t="s">
+      <c r="AC47" s="133"/>
+      <c r="AD47" s="135"/>
+      <c r="AE47" s="135"/>
+      <c r="AF47" s="136" t="s">
         <v>112</v>
       </c>
-      <c r="AG47" s="125"/>
-      <c r="AH47" s="135"/>
+      <c r="AG47" s="116"/>
+      <c r="AH47" s="126"/>
     </row>
-    <row r="48" spans="1:34" s="127" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="115">
+    <row r="48" spans="1:34" s="118" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="106">
         <v>46</v>
       </c>
-      <c r="B48" s="116">
+      <c r="B48" s="107">
         <v>2.7669999999999999</v>
       </c>
-      <c r="C48" s="149">
+      <c r="C48" s="140">
         <v>2.274</v>
       </c>
-      <c r="D48" s="150" t="s">
+      <c r="D48" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="119" t="s">
+      <c r="E48" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="F48" s="119" t="s">
+      <c r="F48" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G48" s="120">
+      <c r="G48" s="111">
         <v>10</v>
       </c>
-      <c r="H48" s="151" t="s">
+      <c r="H48" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="I48" s="128">
+      <c r="I48" s="119">
         <v>1</v>
       </c>
-      <c r="J48" s="119" t="s">
+      <c r="J48" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="K48" s="128">
+      <c r="K48" s="119">
         <v>10</v>
       </c>
-      <c r="L48" s="128">
+      <c r="L48" s="119">
         <v>0.59</v>
       </c>
-      <c r="M48" s="129">
+      <c r="M48" s="120">
         <v>0.2</v>
       </c>
-      <c r="N48" s="129"/>
-      <c r="O48" s="130"/>
-      <c r="P48" s="128"/>
-      <c r="Q48" s="129"/>
-      <c r="R48" s="115">
+      <c r="N48" s="120"/>
+      <c r="O48" s="121"/>
+      <c r="P48" s="119"/>
+      <c r="Q48" s="120"/>
+      <c r="R48" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S48" s="129"/>
-      <c r="T48" s="115">
+      <c r="S48" s="120"/>
+      <c r="T48" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U48" s="129"/>
-      <c r="V48" s="115">
+      <c r="U48" s="120"/>
+      <c r="V48" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W48" s="129"/>
-      <c r="X48" s="115">
+      <c r="W48" s="120"/>
+      <c r="X48" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y48" s="129"/>
-      <c r="Z48" s="115">
+      <c r="Y48" s="120"/>
+      <c r="Z48" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="129"/>
-      <c r="AB48" s="115">
+      <c r="AA48" s="120"/>
+      <c r="AB48" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC48" s="129"/>
-      <c r="AD48" s="133"/>
-      <c r="AE48" s="133"/>
-      <c r="AF48" s="131"/>
-      <c r="AG48" s="125"/>
-      <c r="AH48" s="135"/>
+      <c r="AC48" s="120"/>
+      <c r="AD48" s="124"/>
+      <c r="AE48" s="124"/>
+      <c r="AF48" s="122"/>
+      <c r="AG48" s="116"/>
+      <c r="AH48" s="126"/>
     </row>
-    <row r="49" spans="1:34" s="127" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="115">
+    <row r="49" spans="1:34" s="118" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="106">
         <v>47</v>
       </c>
-      <c r="B49" s="116">
+      <c r="B49" s="107">
         <v>2.7669999999999999</v>
       </c>
-      <c r="C49" s="149">
+      <c r="C49" s="140">
         <v>2.2749999999999999</v>
       </c>
-      <c r="D49" s="150" t="s">
+      <c r="D49" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="E49" s="119" t="s">
+      <c r="E49" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="F49" s="119" t="s">
+      <c r="F49" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="120">
+      <c r="G49" s="111">
         <v>10</v>
       </c>
-      <c r="H49" s="152" t="s">
+      <c r="H49" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="I49" s="128">
+      <c r="I49" s="119">
         <v>60</v>
       </c>
-      <c r="J49" s="119" t="s">
+      <c r="J49" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="K49" s="128">
+      <c r="K49" s="119">
         <v>1</v>
       </c>
-      <c r="L49" s="128">
+      <c r="L49" s="119">
         <v>0.54</v>
       </c>
-      <c r="M49" s="129">
+      <c r="M49" s="120">
         <v>3.3329999999999999E-2</v>
       </c>
-      <c r="N49" s="129"/>
-      <c r="O49" s="130"/>
-      <c r="P49" s="128"/>
-      <c r="Q49" s="129"/>
-      <c r="R49" s="115">
+      <c r="N49" s="120"/>
+      <c r="O49" s="121"/>
+      <c r="P49" s="119"/>
+      <c r="Q49" s="120"/>
+      <c r="R49" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S49" s="129"/>
-      <c r="T49" s="115">
+      <c r="S49" s="120"/>
+      <c r="T49" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U49" s="129"/>
-      <c r="V49" s="115">
+      <c r="U49" s="120"/>
+      <c r="V49" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W49" s="129"/>
-      <c r="X49" s="115">
+      <c r="W49" s="120"/>
+      <c r="X49" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y49" s="129"/>
-      <c r="Z49" s="115">
+      <c r="Y49" s="120"/>
+      <c r="Z49" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA49" s="129"/>
-      <c r="AB49" s="115">
+      <c r="AA49" s="120"/>
+      <c r="AB49" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC49" s="129"/>
-      <c r="AD49" s="133"/>
-      <c r="AE49" s="133"/>
-      <c r="AF49" s="131"/>
-      <c r="AG49" s="125"/>
-      <c r="AH49" s="135"/>
+      <c r="AC49" s="120"/>
+      <c r="AD49" s="124"/>
+      <c r="AE49" s="124"/>
+      <c r="AF49" s="122"/>
+      <c r="AG49" s="116"/>
+      <c r="AH49" s="126"/>
     </row>
-    <row r="50" spans="1:34" s="127" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="115">
+    <row r="50" spans="1:34" s="118" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="106">
         <v>48</v>
       </c>
-      <c r="B50" s="116">
+      <c r="B50" s="107">
         <v>2.7669999999999999</v>
       </c>
-      <c r="C50" s="149">
+      <c r="C50" s="140">
         <v>2.2759999999999998</v>
       </c>
-      <c r="D50" s="150" t="s">
+      <c r="D50" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="E50" s="119" t="s">
+      <c r="E50" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="F50" s="119" t="s">
+      <c r="F50" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G50" s="120">
+      <c r="G50" s="111">
         <v>10</v>
       </c>
-      <c r="H50" s="152" t="s">
+      <c r="H50" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="I50" s="128">
+      <c r="I50" s="119">
         <v>30</v>
       </c>
-      <c r="J50" s="119" t="s">
+      <c r="J50" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="K50" s="128">
+      <c r="K50" s="119">
         <v>2</v>
       </c>
-      <c r="L50" s="128">
+      <c r="L50" s="119">
         <v>0.52</v>
       </c>
-      <c r="M50" s="129">
+      <c r="M50" s="120">
         <v>3.3329999999999999E-2</v>
       </c>
-      <c r="N50" s="129"/>
-      <c r="O50" s="130"/>
-      <c r="P50" s="128"/>
-      <c r="Q50" s="129"/>
-      <c r="R50" s="115">
+      <c r="N50" s="120"/>
+      <c r="O50" s="121"/>
+      <c r="P50" s="119"/>
+      <c r="Q50" s="120"/>
+      <c r="R50" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S50" s="129"/>
-      <c r="T50" s="115">
+      <c r="S50" s="120"/>
+      <c r="T50" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U50" s="129"/>
-      <c r="V50" s="115">
+      <c r="U50" s="120"/>
+      <c r="V50" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W50" s="129"/>
-      <c r="X50" s="115">
+      <c r="W50" s="120"/>
+      <c r="X50" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y50" s="129"/>
-      <c r="Z50" s="115">
+      <c r="Y50" s="120"/>
+      <c r="Z50" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA50" s="129"/>
-      <c r="AB50" s="115">
+      <c r="AA50" s="120"/>
+      <c r="AB50" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC50" s="129"/>
-      <c r="AD50" s="133"/>
-      <c r="AE50" s="133"/>
-      <c r="AF50" s="131"/>
-      <c r="AG50" s="125"/>
-      <c r="AH50" s="135"/>
+      <c r="AC50" s="120"/>
+      <c r="AD50" s="124"/>
+      <c r="AE50" s="124"/>
+      <c r="AF50" s="122"/>
+      <c r="AG50" s="116"/>
+      <c r="AH50" s="126"/>
     </row>
-    <row r="51" spans="1:34" s="127" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="115">
+    <row r="51" spans="1:34" s="118" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="106">
         <v>49</v>
       </c>
-      <c r="B51" s="116">
+      <c r="B51" s="107">
         <v>2.7669999999999999</v>
       </c>
-      <c r="C51" s="149">
+      <c r="C51" s="140">
         <v>2.2769999999999997</v>
       </c>
-      <c r="D51" s="150" t="s">
+      <c r="D51" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="E51" s="119" t="s">
+      <c r="E51" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="F51" s="119" t="s">
+      <c r="F51" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G51" s="120">
+      <c r="G51" s="111">
         <v>10</v>
       </c>
-      <c r="H51" s="152" t="s">
+      <c r="H51" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="I51" s="128">
+      <c r="I51" s="119">
         <v>20</v>
       </c>
-      <c r="J51" s="119" t="s">
+      <c r="J51" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="K51" s="128">
+      <c r="K51" s="119">
         <v>3</v>
       </c>
-      <c r="L51" s="128">
+      <c r="L51" s="119">
         <v>0.44400000000000001</v>
       </c>
-      <c r="M51" s="129">
+      <c r="M51" s="120">
         <v>3.3329999999999999E-2</v>
       </c>
-      <c r="N51" s="129"/>
-      <c r="O51" s="130"/>
-      <c r="P51" s="128"/>
-      <c r="Q51" s="129"/>
-      <c r="R51" s="115">
+      <c r="N51" s="120"/>
+      <c r="O51" s="121"/>
+      <c r="P51" s="119"/>
+      <c r="Q51" s="120"/>
+      <c r="R51" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S51" s="129"/>
-      <c r="T51" s="115">
+      <c r="S51" s="120"/>
+      <c r="T51" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U51" s="129"/>
-      <c r="V51" s="115">
+      <c r="U51" s="120"/>
+      <c r="V51" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W51" s="129"/>
-      <c r="X51" s="115">
+      <c r="W51" s="120"/>
+      <c r="X51" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y51" s="129"/>
-      <c r="Z51" s="115">
+      <c r="Y51" s="120"/>
+      <c r="Z51" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA51" s="129"/>
-      <c r="AB51" s="115">
+      <c r="AA51" s="120"/>
+      <c r="AB51" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC51" s="129"/>
-      <c r="AD51" s="133"/>
-      <c r="AE51" s="133"/>
-      <c r="AF51" s="131"/>
-      <c r="AG51" s="125"/>
-      <c r="AH51" s="135"/>
+      <c r="AC51" s="120"/>
+      <c r="AD51" s="124"/>
+      <c r="AE51" s="124"/>
+      <c r="AF51" s="122"/>
+      <c r="AG51" s="116"/>
+      <c r="AH51" s="126"/>
     </row>
-    <row r="52" spans="1:34" s="127" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="115">
+    <row r="52" spans="1:34" s="118" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="106">
         <v>50</v>
       </c>
-      <c r="B52" s="116">
+      <c r="B52" s="107">
         <v>2.7669999999999999</v>
       </c>
-      <c r="C52" s="149">
+      <c r="C52" s="140">
         <v>2.2779999999999996</v>
       </c>
-      <c r="D52" s="150" t="s">
+      <c r="D52" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="E52" s="119" t="s">
+      <c r="E52" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="F52" s="119" t="s">
+      <c r="F52" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G52" s="120">
+      <c r="G52" s="111">
         <v>10</v>
       </c>
-      <c r="H52" s="152" t="s">
+      <c r="H52" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="I52" s="128">
+      <c r="I52" s="119">
         <v>15</v>
       </c>
-      <c r="J52" s="119" t="s">
+      <c r="J52" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="K52" s="128">
+      <c r="K52" s="119">
         <v>4</v>
       </c>
-      <c r="L52" s="128">
+      <c r="L52" s="119">
         <v>0.57899999999999996</v>
       </c>
-      <c r="M52" s="129">
+      <c r="M52" s="120">
         <v>3.3329999999999999E-2</v>
       </c>
-      <c r="N52" s="129"/>
-      <c r="O52" s="130"/>
-      <c r="P52" s="128"/>
-      <c r="Q52" s="129"/>
-      <c r="R52" s="115">
+      <c r="N52" s="120"/>
+      <c r="O52" s="121"/>
+      <c r="P52" s="119"/>
+      <c r="Q52" s="120"/>
+      <c r="R52" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S52" s="129"/>
-      <c r="T52" s="115">
+      <c r="S52" s="120"/>
+      <c r="T52" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U52" s="129"/>
-      <c r="V52" s="115">
+      <c r="U52" s="120"/>
+      <c r="V52" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W52" s="129"/>
-      <c r="X52" s="115">
+      <c r="W52" s="120"/>
+      <c r="X52" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y52" s="129"/>
-      <c r="Z52" s="115">
+      <c r="Y52" s="120"/>
+      <c r="Z52" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA52" s="129"/>
-      <c r="AB52" s="115">
+      <c r="AA52" s="120"/>
+      <c r="AB52" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC52" s="129"/>
-      <c r="AD52" s="133"/>
-      <c r="AE52" s="133"/>
-      <c r="AF52" s="131"/>
-      <c r="AG52" s="125"/>
-      <c r="AH52" s="135"/>
+      <c r="AC52" s="120"/>
+      <c r="AD52" s="124"/>
+      <c r="AE52" s="124"/>
+      <c r="AF52" s="122"/>
+      <c r="AG52" s="116"/>
+      <c r="AH52" s="126"/>
     </row>
-    <row r="53" spans="1:34" s="127" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="115">
+    <row r="53" spans="1:34" s="118" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="106">
         <v>51</v>
       </c>
-      <c r="B53" s="116">
+      <c r="B53" s="107">
         <v>2.7669999999999999</v>
       </c>
-      <c r="C53" s="149">
+      <c r="C53" s="140">
         <v>2.2789999999999995</v>
       </c>
-      <c r="D53" s="150" t="s">
+      <c r="D53" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="E53" s="119" t="s">
+      <c r="E53" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="F53" s="119" t="s">
+      <c r="F53" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G53" s="120">
+      <c r="G53" s="111">
         <v>10</v>
       </c>
-      <c r="H53" s="152" t="s">
+      <c r="H53" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="I53" s="128">
+      <c r="I53" s="119">
         <v>12</v>
       </c>
-      <c r="J53" s="119" t="s">
+      <c r="J53" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="K53" s="128">
+      <c r="K53" s="119">
         <v>5</v>
       </c>
-      <c r="L53" s="128">
+      <c r="L53" s="119">
         <v>0.47599999999999998</v>
       </c>
-      <c r="M53" s="129">
+      <c r="M53" s="120">
         <v>3.3329999999999999E-2</v>
       </c>
-      <c r="N53" s="129"/>
-      <c r="O53" s="130"/>
-      <c r="P53" s="128"/>
-      <c r="Q53" s="129"/>
-      <c r="R53" s="115">
+      <c r="N53" s="120"/>
+      <c r="O53" s="121"/>
+      <c r="P53" s="119"/>
+      <c r="Q53" s="120"/>
+      <c r="R53" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S53" s="129"/>
-      <c r="T53" s="115">
+      <c r="S53" s="120"/>
+      <c r="T53" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U53" s="129"/>
-      <c r="V53" s="115">
+      <c r="U53" s="120"/>
+      <c r="V53" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W53" s="129"/>
-      <c r="X53" s="115">
+      <c r="W53" s="120"/>
+      <c r="X53" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y53" s="129"/>
-      <c r="Z53" s="115">
+      <c r="Y53" s="120"/>
+      <c r="Z53" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA53" s="129"/>
-      <c r="AB53" s="115">
+      <c r="AA53" s="120"/>
+      <c r="AB53" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC53" s="129"/>
-      <c r="AD53" s="133"/>
-      <c r="AE53" s="133"/>
-      <c r="AF53" s="131"/>
-      <c r="AG53" s="125"/>
-      <c r="AH53" s="135"/>
+      <c r="AC53" s="120"/>
+      <c r="AD53" s="124"/>
+      <c r="AE53" s="124"/>
+      <c r="AF53" s="122"/>
+      <c r="AG53" s="116"/>
+      <c r="AH53" s="126"/>
     </row>
-    <row r="54" spans="1:34" s="127" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="115">
+    <row r="54" spans="1:34" s="118" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="106">
         <v>52</v>
       </c>
-      <c r="B54" s="116">
+      <c r="B54" s="107">
         <v>2.7669999999999999</v>
       </c>
-      <c r="C54" s="149">
+      <c r="C54" s="140">
         <v>2.2799999999999994</v>
       </c>
-      <c r="D54" s="150" t="s">
+      <c r="D54" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="E54" s="119" t="s">
+      <c r="E54" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="F54" s="119" t="s">
+      <c r="F54" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G54" s="120">
+      <c r="G54" s="111">
         <v>10</v>
       </c>
-      <c r="H54" s="152" t="s">
+      <c r="H54" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="I54" s="128">
+      <c r="I54" s="119">
         <v>6</v>
       </c>
-      <c r="J54" s="119" t="s">
+      <c r="J54" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="K54" s="128">
+      <c r="K54" s="119">
         <v>10</v>
       </c>
-      <c r="L54" s="128">
+      <c r="L54" s="119">
         <v>0.50800000000000001</v>
       </c>
-      <c r="M54" s="129">
+      <c r="M54" s="120">
         <v>3.3329999999999999E-2</v>
       </c>
-      <c r="N54" s="129"/>
-      <c r="O54" s="130"/>
-      <c r="P54" s="128"/>
-      <c r="Q54" s="129"/>
-      <c r="R54" s="115">
+      <c r="N54" s="120"/>
+      <c r="O54" s="121"/>
+      <c r="P54" s="119"/>
+      <c r="Q54" s="120"/>
+      <c r="R54" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S54" s="129"/>
-      <c r="T54" s="115">
+      <c r="S54" s="120"/>
+      <c r="T54" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U54" s="129"/>
-      <c r="V54" s="115">
+      <c r="U54" s="120"/>
+      <c r="V54" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W54" s="129"/>
-      <c r="X54" s="115">
+      <c r="W54" s="120"/>
+      <c r="X54" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y54" s="129"/>
-      <c r="Z54" s="115">
+      <c r="Y54" s="120"/>
+      <c r="Z54" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA54" s="129"/>
-      <c r="AB54" s="115">
+      <c r="AA54" s="120"/>
+      <c r="AB54" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC54" s="129"/>
-      <c r="AD54" s="133"/>
-      <c r="AE54" s="133"/>
-      <c r="AF54" s="131"/>
-      <c r="AG54" s="125"/>
-      <c r="AH54" s="135"/>
+      <c r="AC54" s="120"/>
+      <c r="AD54" s="124"/>
+      <c r="AE54" s="124"/>
+      <c r="AF54" s="122"/>
+      <c r="AG54" s="116"/>
+      <c r="AH54" s="126"/>
     </row>
-    <row r="55" spans="1:34" s="127" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="115">
+    <row r="55" spans="1:34" s="118" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="106">
         <v>53</v>
       </c>
-      <c r="B55" s="116">
+      <c r="B55" s="107">
         <v>2.7669999999999999</v>
       </c>
-      <c r="C55" s="149">
+      <c r="C55" s="140">
         <v>2.2809999999999993</v>
       </c>
-      <c r="D55" s="150" t="s">
+      <c r="D55" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="E55" s="119" t="s">
+      <c r="E55" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="F55" s="119" t="s">
+      <c r="F55" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G55" s="120">
+      <c r="G55" s="111">
         <v>10</v>
       </c>
-      <c r="H55" s="152" t="s">
+      <c r="H55" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="I55" s="128">
+      <c r="I55" s="119">
         <v>5</v>
       </c>
-      <c r="J55" s="119" t="s">
+      <c r="J55" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="K55" s="128">
+      <c r="K55" s="119">
         <v>12</v>
       </c>
-      <c r="L55" s="128">
+      <c r="L55" s="119">
         <v>0.49</v>
       </c>
-      <c r="M55" s="129">
+      <c r="M55" s="120">
         <v>3.3329999999999999E-2</v>
       </c>
-      <c r="N55" s="129"/>
-      <c r="O55" s="130"/>
-      <c r="P55" s="128"/>
-      <c r="Q55" s="129"/>
-      <c r="R55" s="115">
+      <c r="N55" s="120"/>
+      <c r="O55" s="121"/>
+      <c r="P55" s="119"/>
+      <c r="Q55" s="120"/>
+      <c r="R55" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S55" s="129"/>
-      <c r="T55" s="115">
+      <c r="S55" s="120"/>
+      <c r="T55" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U55" s="129"/>
-      <c r="V55" s="115">
+      <c r="U55" s="120"/>
+      <c r="V55" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W55" s="129"/>
-      <c r="X55" s="115">
+      <c r="W55" s="120"/>
+      <c r="X55" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y55" s="129"/>
-      <c r="Z55" s="115">
+      <c r="Y55" s="120"/>
+      <c r="Z55" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA55" s="129"/>
-      <c r="AB55" s="115">
+      <c r="AA55" s="120"/>
+      <c r="AB55" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC55" s="129"/>
-      <c r="AD55" s="133"/>
-      <c r="AE55" s="133"/>
-      <c r="AF55" s="131"/>
-      <c r="AG55" s="125"/>
-      <c r="AH55" s="135"/>
+      <c r="AC55" s="120"/>
+      <c r="AD55" s="124"/>
+      <c r="AE55" s="124"/>
+      <c r="AF55" s="122"/>
+      <c r="AG55" s="116"/>
+      <c r="AH55" s="126"/>
     </row>
-    <row r="56" spans="1:34" s="127" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="115">
+    <row r="56" spans="1:34" s="118" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="106">
         <v>54</v>
       </c>
-      <c r="B56" s="116">
+      <c r="B56" s="107">
         <v>2.7669999999999999</v>
       </c>
-      <c r="C56" s="149">
+      <c r="C56" s="140">
         <v>2.2819999999999991</v>
       </c>
-      <c r="D56" s="150" t="s">
+      <c r="D56" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="E56" s="119" t="s">
+      <c r="E56" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="F56" s="119" t="s">
+      <c r="F56" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G56" s="120">
+      <c r="G56" s="111">
         <v>10</v>
       </c>
-      <c r="H56" s="152" t="s">
+      <c r="H56" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="I56" s="128">
+      <c r="I56" s="119">
         <v>4</v>
       </c>
-      <c r="J56" s="119" t="s">
+      <c r="J56" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="K56" s="128">
+      <c r="K56" s="119">
         <v>15</v>
       </c>
-      <c r="L56" s="128">
+      <c r="L56" s="119">
         <v>0.5</v>
       </c>
-      <c r="M56" s="129">
+      <c r="M56" s="120">
         <v>3.3329999999999999E-2</v>
       </c>
-      <c r="N56" s="129"/>
-      <c r="O56" s="130"/>
-      <c r="P56" s="128"/>
-      <c r="Q56" s="129"/>
-      <c r="R56" s="115">
+      <c r="N56" s="120"/>
+      <c r="O56" s="121"/>
+      <c r="P56" s="119"/>
+      <c r="Q56" s="120"/>
+      <c r="R56" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S56" s="129"/>
-      <c r="T56" s="115">
+      <c r="S56" s="120"/>
+      <c r="T56" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U56" s="129"/>
-      <c r="V56" s="115">
+      <c r="U56" s="120"/>
+      <c r="V56" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W56" s="129"/>
-      <c r="X56" s="115">
+      <c r="W56" s="120"/>
+      <c r="X56" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y56" s="129"/>
-      <c r="Z56" s="115">
+      <c r="Y56" s="120"/>
+      <c r="Z56" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA56" s="129"/>
-      <c r="AB56" s="115">
+      <c r="AA56" s="120"/>
+      <c r="AB56" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC56" s="129"/>
-      <c r="AD56" s="133"/>
-      <c r="AE56" s="133"/>
-      <c r="AF56" s="131"/>
-      <c r="AG56" s="125"/>
-      <c r="AH56" s="135"/>
+      <c r="AC56" s="120"/>
+      <c r="AD56" s="124"/>
+      <c r="AE56" s="124"/>
+      <c r="AF56" s="122"/>
+      <c r="AG56" s="116"/>
+      <c r="AH56" s="126"/>
     </row>
-    <row r="57" spans="1:34" s="127" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="115">
+    <row r="57" spans="1:34" s="118" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="106">
         <v>55</v>
       </c>
-      <c r="B57" s="116">
+      <c r="B57" s="107">
         <v>2.7669999999999999</v>
       </c>
-      <c r="C57" s="149">
+      <c r="C57" s="140">
         <v>2.282999999999999</v>
       </c>
-      <c r="D57" s="150" t="s">
+      <c r="D57" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="E57" s="119" t="s">
+      <c r="E57" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="F57" s="119" t="s">
+      <c r="F57" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G57" s="120">
+      <c r="G57" s="111">
         <v>10</v>
       </c>
-      <c r="H57" s="152" t="s">
+      <c r="H57" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="I57" s="128">
+      <c r="I57" s="119">
         <v>2</v>
       </c>
-      <c r="J57" s="119" t="s">
+      <c r="J57" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="K57" s="128">
+      <c r="K57" s="119">
         <v>30</v>
       </c>
-      <c r="L57" s="128">
+      <c r="L57" s="119">
         <v>0.61799999999999999</v>
       </c>
-      <c r="M57" s="129">
+      <c r="M57" s="120">
         <v>3.3329999999999999E-2</v>
       </c>
-      <c r="N57" s="129"/>
-      <c r="O57" s="130"/>
-      <c r="P57" s="128"/>
-      <c r="Q57" s="129"/>
-      <c r="R57" s="115">
+      <c r="N57" s="120"/>
+      <c r="O57" s="121"/>
+      <c r="P57" s="119"/>
+      <c r="Q57" s="120"/>
+      <c r="R57" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S57" s="129"/>
-      <c r="T57" s="115">
+      <c r="S57" s="120"/>
+      <c r="T57" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U57" s="129"/>
-      <c r="V57" s="115">
+      <c r="U57" s="120"/>
+      <c r="V57" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W57" s="129"/>
-      <c r="X57" s="115">
+      <c r="W57" s="120"/>
+      <c r="X57" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y57" s="129"/>
-      <c r="Z57" s="115">
+      <c r="Y57" s="120"/>
+      <c r="Z57" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA57" s="129"/>
-      <c r="AB57" s="115">
+      <c r="AA57" s="120"/>
+      <c r="AB57" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC57" s="129"/>
-      <c r="AD57" s="133"/>
-      <c r="AE57" s="133"/>
-      <c r="AF57" s="131"/>
-      <c r="AG57" s="125"/>
-      <c r="AH57" s="135"/>
+      <c r="AC57" s="120"/>
+      <c r="AD57" s="124"/>
+      <c r="AE57" s="124"/>
+      <c r="AF57" s="122"/>
+      <c r="AG57" s="116"/>
+      <c r="AH57" s="126"/>
     </row>
-    <row r="58" spans="1:34" s="127" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="115">
+    <row r="58" spans="1:34" s="118" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="106">
         <v>56</v>
       </c>
-      <c r="B58" s="116">
+      <c r="B58" s="107">
         <v>2.7669999999999999</v>
       </c>
-      <c r="C58" s="149">
+      <c r="C58" s="140">
         <v>2.2839999999999989</v>
       </c>
-      <c r="D58" s="150" t="s">
+      <c r="D58" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="E58" s="119" t="s">
+      <c r="E58" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="F58" s="119" t="s">
+      <c r="F58" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="120">
+      <c r="G58" s="111">
         <v>10</v>
       </c>
-      <c r="H58" s="152" t="s">
+      <c r="H58" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="I58" s="128">
+      <c r="I58" s="119">
         <v>1</v>
       </c>
-      <c r="J58" s="119" t="s">
+      <c r="J58" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="K58" s="128">
+      <c r="K58" s="119">
         <v>60</v>
       </c>
-      <c r="L58" s="128">
+      <c r="L58" s="119">
         <v>0.59299999999999997</v>
       </c>
-      <c r="M58" s="129">
+      <c r="M58" s="120">
         <v>3.3329999999999999E-2</v>
       </c>
-      <c r="N58" s="129"/>
-      <c r="O58" s="130"/>
-      <c r="P58" s="128"/>
-      <c r="Q58" s="129"/>
-      <c r="R58" s="115">
+      <c r="N58" s="120"/>
+      <c r="O58" s="121"/>
+      <c r="P58" s="119"/>
+      <c r="Q58" s="120"/>
+      <c r="R58" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S58" s="129"/>
-      <c r="T58" s="115">
+      <c r="S58" s="120"/>
+      <c r="T58" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U58" s="129"/>
-      <c r="V58" s="115">
+      <c r="U58" s="120"/>
+      <c r="V58" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W58" s="129"/>
-      <c r="X58" s="115">
+      <c r="W58" s="120"/>
+      <c r="X58" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y58" s="129"/>
-      <c r="Z58" s="115">
+      <c r="Y58" s="120"/>
+      <c r="Z58" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA58" s="129"/>
-      <c r="AB58" s="115">
+      <c r="AA58" s="120"/>
+      <c r="AB58" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC58" s="129"/>
-      <c r="AD58" s="133"/>
-      <c r="AE58" s="133"/>
-      <c r="AF58" s="131"/>
-      <c r="AG58" s="125"/>
-      <c r="AH58" s="135"/>
+      <c r="AC58" s="120"/>
+      <c r="AD58" s="124"/>
+      <c r="AE58" s="124"/>
+      <c r="AF58" s="122"/>
+      <c r="AG58" s="116"/>
+      <c r="AH58" s="126"/>
     </row>
-    <row r="59" spans="1:34" s="127" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="115">
+    <row r="59" spans="1:34" s="118" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="106">
         <v>57</v>
       </c>
-      <c r="B59" s="116">
+      <c r="B59" s="107">
         <v>2.7669999999999999</v>
       </c>
-      <c r="C59" s="149">
+      <c r="C59" s="140">
         <v>2.2859999999999987</v>
       </c>
-      <c r="D59" s="150" t="s">
+      <c r="D59" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="E59" s="119" t="s">
+      <c r="E59" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="F59" s="119" t="s">
+      <c r="F59" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G59" s="120">
+      <c r="G59" s="111">
         <v>10</v>
       </c>
-      <c r="H59" s="152" t="s">
+      <c r="H59" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="I59" s="128">
+      <c r="I59" s="119">
         <v>2</v>
       </c>
-      <c r="J59" s="119" t="s">
+      <c r="J59" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="K59" s="128">
+      <c r="K59" s="119">
         <v>30</v>
       </c>
-      <c r="L59" s="128">
+      <c r="L59" s="119">
         <v>0.54</v>
       </c>
-      <c r="M59" s="129">
+      <c r="M59" s="120">
         <v>6.6659999999999997E-2</v>
       </c>
-      <c r="N59" s="129"/>
-      <c r="O59" s="130"/>
-      <c r="P59" s="128"/>
-      <c r="Q59" s="129"/>
-      <c r="R59" s="115">
+      <c r="N59" s="120"/>
+      <c r="O59" s="121"/>
+      <c r="P59" s="119"/>
+      <c r="Q59" s="120"/>
+      <c r="R59" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S59" s="129"/>
-      <c r="T59" s="115">
+      <c r="S59" s="120"/>
+      <c r="T59" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U59" s="129"/>
-      <c r="V59" s="115">
+      <c r="U59" s="120"/>
+      <c r="V59" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W59" s="129"/>
-      <c r="X59" s="115">
+      <c r="W59" s="120"/>
+      <c r="X59" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y59" s="129"/>
-      <c r="Z59" s="115">
+      <c r="Y59" s="120"/>
+      <c r="Z59" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA59" s="129"/>
-      <c r="AB59" s="115">
+      <c r="AA59" s="120"/>
+      <c r="AB59" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC59" s="129"/>
-      <c r="AD59" s="133"/>
-      <c r="AE59" s="133"/>
-      <c r="AF59" s="131"/>
-      <c r="AG59" s="125"/>
-      <c r="AH59" s="135"/>
+      <c r="AC59" s="120"/>
+      <c r="AD59" s="124"/>
+      <c r="AE59" s="124"/>
+      <c r="AF59" s="122"/>
+      <c r="AG59" s="116"/>
+      <c r="AH59" s="126"/>
     </row>
-    <row r="60" spans="1:34" s="127" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="153">
+    <row r="60" spans="1:34" s="118" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="144">
         <v>58</v>
       </c>
-      <c r="B60" s="116">
+      <c r="B60" s="107">
         <v>2.7669999999999999</v>
       </c>
-      <c r="C60" s="149">
+      <c r="C60" s="140">
         <v>2.2869999999999986</v>
       </c>
-      <c r="D60" s="150" t="s">
+      <c r="D60" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="E60" s="119" t="s">
+      <c r="E60" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="F60" s="119" t="s">
+      <c r="F60" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G60" s="120">
+      <c r="G60" s="111">
         <v>10</v>
       </c>
-      <c r="H60" s="152" t="s">
+      <c r="H60" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="I60" s="128">
+      <c r="I60" s="119">
         <v>2</v>
       </c>
-      <c r="J60" s="119" t="s">
+      <c r="J60" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="K60" s="128">
+      <c r="K60" s="119">
         <v>30</v>
       </c>
-      <c r="L60" s="128">
+      <c r="L60" s="119">
         <v>0.57199999999999995</v>
       </c>
-      <c r="M60" s="129">
+      <c r="M60" s="120">
         <v>1.6660000000000001E-2</v>
       </c>
-      <c r="N60" s="129"/>
-      <c r="O60" s="130"/>
-      <c r="P60" s="128"/>
-      <c r="Q60" s="129"/>
-      <c r="R60" s="115">
+      <c r="N60" s="120"/>
+      <c r="O60" s="121"/>
+      <c r="P60" s="119"/>
+      <c r="Q60" s="120"/>
+      <c r="R60" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S60" s="129"/>
-      <c r="T60" s="115">
+      <c r="S60" s="120"/>
+      <c r="T60" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U60" s="129"/>
-      <c r="V60" s="115">
+      <c r="U60" s="120"/>
+      <c r="V60" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W60" s="129"/>
-      <c r="X60" s="115">
+      <c r="W60" s="120"/>
+      <c r="X60" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y60" s="129"/>
-      <c r="Z60" s="115">
+      <c r="Y60" s="120"/>
+      <c r="Z60" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA60" s="129"/>
-      <c r="AB60" s="115">
+      <c r="AA60" s="120"/>
+      <c r="AB60" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC60" s="129"/>
-      <c r="AD60" s="133"/>
-      <c r="AE60" s="133"/>
-      <c r="AF60" s="131"/>
-      <c r="AG60" s="154"/>
-      <c r="AH60" s="155"/>
+      <c r="AC60" s="120"/>
+      <c r="AD60" s="124"/>
+      <c r="AE60" s="124"/>
+      <c r="AF60" s="122"/>
+      <c r="AG60" s="145"/>
+      <c r="AH60" s="146"/>
     </row>
-    <row r="61" spans="1:34" s="127" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="115">
+    <row r="61" spans="1:34" s="118" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="106">
         <v>60</v>
       </c>
-      <c r="B61" s="116">
+      <c r="B61" s="107">
         <v>2.3149999999999999</v>
       </c>
-      <c r="C61" s="117">
+      <c r="C61" s="108">
         <v>2.3069999999999999</v>
       </c>
-      <c r="D61" s="150">
+      <c r="D61" s="141">
         <v>42565</v>
       </c>
-      <c r="E61" s="128" t="s">
+      <c r="E61" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="F61" s="119" t="s">
+      <c r="F61" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="128">
+      <c r="G61" s="119">
         <v>6</v>
       </c>
-      <c r="H61" s="152" t="s">
+      <c r="H61" s="143" t="s">
         <v>114</v>
       </c>
-      <c r="I61" s="128">
+      <c r="I61" s="119">
         <v>1</v>
       </c>
-      <c r="J61" s="128" t="s">
+      <c r="J61" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="K61" s="128">
+      <c r="K61" s="119">
         <v>20</v>
       </c>
-      <c r="L61" s="128">
+      <c r="L61" s="119">
         <v>3.1160000000000001</v>
       </c>
-      <c r="M61" s="129">
+      <c r="M61" s="120">
         <v>0.1</v>
       </c>
-      <c r="N61" s="129"/>
-      <c r="O61" s="130"/>
-      <c r="P61" s="128"/>
-      <c r="Q61" s="129"/>
-      <c r="R61" s="115">
+      <c r="N61" s="120"/>
+      <c r="O61" s="121"/>
+      <c r="P61" s="119"/>
+      <c r="Q61" s="120"/>
+      <c r="R61" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S61" s="129"/>
-      <c r="T61" s="115">
+      <c r="S61" s="120"/>
+      <c r="T61" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U61" s="129"/>
-      <c r="V61" s="115">
+      <c r="U61" s="120"/>
+      <c r="V61" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W61" s="129"/>
-      <c r="X61" s="115">
+      <c r="W61" s="120"/>
+      <c r="X61" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y61" s="129"/>
-      <c r="Z61" s="115">
+      <c r="Y61" s="120"/>
+      <c r="Z61" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA61" s="129"/>
-      <c r="AB61" s="115">
+      <c r="AA61" s="120"/>
+      <c r="AB61" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC61" s="129"/>
-      <c r="AD61" s="123"/>
-      <c r="AE61" s="123"/>
-      <c r="AF61" s="129"/>
-      <c r="AG61" s="156"/>
-      <c r="AH61" s="156"/>
+      <c r="AC61" s="120"/>
+      <c r="AD61" s="114"/>
+      <c r="AE61" s="114"/>
+      <c r="AF61" s="120"/>
+      <c r="AG61" s="147"/>
+      <c r="AH61" s="147"/>
     </row>
-    <row r="62" spans="1:34" s="127" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="115">
+    <row r="62" spans="1:34" s="118" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="106">
         <v>61</v>
       </c>
-      <c r="B62" s="116">
+      <c r="B62" s="107">
         <v>2.3149999999999999</v>
       </c>
-      <c r="C62" s="149">
+      <c r="C62" s="140">
         <v>2.3075000000000001</v>
       </c>
-      <c r="D62" s="150">
+      <c r="D62" s="141">
         <v>42565</v>
       </c>
-      <c r="E62" s="128" t="s">
+      <c r="E62" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="F62" s="119" t="s">
+      <c r="F62" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G62" s="128">
+      <c r="G62" s="119">
         <v>6</v>
       </c>
-      <c r="H62" s="152" t="s">
+      <c r="H62" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="I62" s="128">
+      <c r="I62" s="119">
         <v>1</v>
       </c>
-      <c r="J62" s="128" t="s">
+      <c r="J62" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="K62" s="128">
+      <c r="K62" s="119">
         <v>20</v>
       </c>
-      <c r="L62" s="128">
+      <c r="L62" s="119">
         <v>3.0550000000000002</v>
       </c>
-      <c r="M62" s="129">
+      <c r="M62" s="120">
         <v>0.1</v>
       </c>
-      <c r="N62" s="129"/>
-      <c r="O62" s="130"/>
-      <c r="P62" s="128"/>
-      <c r="Q62" s="129"/>
-      <c r="R62" s="115">
+      <c r="N62" s="120"/>
+      <c r="O62" s="121"/>
+      <c r="P62" s="119"/>
+      <c r="Q62" s="120"/>
+      <c r="R62" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S62" s="129"/>
-      <c r="T62" s="115">
+      <c r="S62" s="120"/>
+      <c r="T62" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U62" s="129"/>
-      <c r="V62" s="115">
+      <c r="U62" s="120"/>
+      <c r="V62" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W62" s="129"/>
-      <c r="X62" s="115">
+      <c r="W62" s="120"/>
+      <c r="X62" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y62" s="129"/>
-      <c r="Z62" s="115">
+      <c r="Y62" s="120"/>
+      <c r="Z62" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA62" s="129"/>
-      <c r="AB62" s="115">
+      <c r="AA62" s="120"/>
+      <c r="AB62" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC62" s="129"/>
-      <c r="AD62" s="133"/>
-      <c r="AE62" s="133"/>
-      <c r="AF62" s="129"/>
-      <c r="AG62" s="156"/>
-      <c r="AH62" s="156"/>
+      <c r="AC62" s="120"/>
+      <c r="AD62" s="124"/>
+      <c r="AE62" s="124"/>
+      <c r="AF62" s="120"/>
+      <c r="AG62" s="147"/>
+      <c r="AH62" s="147"/>
     </row>
-    <row r="63" spans="1:34" s="127" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="115">
+    <row r="63" spans="1:34" s="118" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="106">
         <v>62</v>
       </c>
-      <c r="B63" s="116">
+      <c r="B63" s="107">
         <v>2.3149999999999999</v>
       </c>
-      <c r="C63" s="149">
+      <c r="C63" s="140">
         <v>2.3079999999999998</v>
       </c>
-      <c r="D63" s="150">
+      <c r="D63" s="141">
         <v>42565</v>
       </c>
-      <c r="E63" s="128" t="s">
+      <c r="E63" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="F63" s="119" t="s">
+      <c r="F63" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G63" s="128">
+      <c r="G63" s="119">
         <v>6</v>
       </c>
-      <c r="H63" s="152" t="s">
+      <c r="H63" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="I63" s="128">
+      <c r="I63" s="119">
         <v>1</v>
       </c>
-      <c r="J63" s="128" t="s">
+      <c r="J63" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="K63" s="128">
+      <c r="K63" s="119">
         <v>20</v>
       </c>
-      <c r="L63" s="128">
+      <c r="L63" s="119">
         <v>3.073</v>
       </c>
-      <c r="M63" s="129">
+      <c r="M63" s="120">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="N63" s="129"/>
-      <c r="O63" s="130"/>
-      <c r="P63" s="128"/>
-      <c r="Q63" s="129"/>
-      <c r="R63" s="115">
+      <c r="N63" s="120"/>
+      <c r="O63" s="121"/>
+      <c r="P63" s="119"/>
+      <c r="Q63" s="120"/>
+      <c r="R63" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S63" s="129"/>
-      <c r="T63" s="115">
+      <c r="S63" s="120"/>
+      <c r="T63" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U63" s="129"/>
-      <c r="V63" s="115">
+      <c r="U63" s="120"/>
+      <c r="V63" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W63" s="129"/>
-      <c r="X63" s="115">
+      <c r="W63" s="120"/>
+      <c r="X63" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y63" s="129"/>
-      <c r="Z63" s="115">
+      <c r="Y63" s="120"/>
+      <c r="Z63" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA63" s="129"/>
-      <c r="AB63" s="115">
+      <c r="AA63" s="120"/>
+      <c r="AB63" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC63" s="129"/>
-      <c r="AD63" s="133"/>
-      <c r="AE63" s="133"/>
-      <c r="AF63" s="129"/>
-      <c r="AG63" s="156"/>
-      <c r="AH63" s="156"/>
+      <c r="AC63" s="120"/>
+      <c r="AD63" s="124"/>
+      <c r="AE63" s="124"/>
+      <c r="AF63" s="120"/>
+      <c r="AG63" s="147"/>
+      <c r="AH63" s="147"/>
     </row>
-    <row r="64" spans="1:34" s="127" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="115">
+    <row r="64" spans="1:34" s="118" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="106">
         <v>63</v>
       </c>
-      <c r="B64" s="116">
+      <c r="B64" s="107">
         <v>2.3149999999999999</v>
       </c>
-      <c r="C64" s="149">
+      <c r="C64" s="140">
         <v>2.3085</v>
       </c>
-      <c r="D64" s="150">
+      <c r="D64" s="141">
         <v>42565</v>
       </c>
-      <c r="E64" s="128" t="s">
+      <c r="E64" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="F64" s="119" t="s">
+      <c r="F64" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G64" s="128">
+      <c r="G64" s="119">
         <v>6</v>
       </c>
-      <c r="H64" s="152" t="s">
+      <c r="H64" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="I64" s="128">
+      <c r="I64" s="119">
         <v>1</v>
       </c>
-      <c r="J64" s="128" t="s">
+      <c r="J64" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="K64" s="128">
+      <c r="K64" s="119">
         <v>20</v>
       </c>
-      <c r="L64" s="128">
+      <c r="L64" s="119">
         <v>2.9489999999999998</v>
       </c>
-      <c r="M64" s="129">
+      <c r="M64" s="120">
         <v>0.05</v>
       </c>
-      <c r="N64" s="129"/>
-      <c r="O64" s="130"/>
-      <c r="P64" s="128"/>
-      <c r="Q64" s="129"/>
-      <c r="R64" s="115">
+      <c r="N64" s="120"/>
+      <c r="O64" s="121"/>
+      <c r="P64" s="119"/>
+      <c r="Q64" s="120"/>
+      <c r="R64" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S64" s="129"/>
-      <c r="T64" s="115">
+      <c r="S64" s="120"/>
+      <c r="T64" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U64" s="129"/>
-      <c r="V64" s="115">
+      <c r="U64" s="120"/>
+      <c r="V64" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W64" s="129"/>
-      <c r="X64" s="115">
+      <c r="W64" s="120"/>
+      <c r="X64" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y64" s="129"/>
-      <c r="Z64" s="115">
+      <c r="Y64" s="120"/>
+      <c r="Z64" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA64" s="129"/>
-      <c r="AB64" s="115">
+      <c r="AA64" s="120"/>
+      <c r="AB64" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC64" s="129"/>
-      <c r="AD64" s="133"/>
-      <c r="AE64" s="133"/>
-      <c r="AF64" s="129"/>
-      <c r="AG64" s="156"/>
-      <c r="AH64" s="156"/>
+      <c r="AC64" s="120"/>
+      <c r="AD64" s="124"/>
+      <c r="AE64" s="124"/>
+      <c r="AF64" s="120"/>
+      <c r="AG64" s="147"/>
+      <c r="AH64" s="147"/>
     </row>
-    <row r="65" spans="1:34" s="127" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="115">
+    <row r="65" spans="1:34" s="118" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="106">
         <v>64</v>
       </c>
-      <c r="B65" s="116">
+      <c r="B65" s="107">
         <v>2.3149999999999999</v>
       </c>
-      <c r="C65" s="149">
+      <c r="C65" s="140">
         <v>2.3094999999999999</v>
       </c>
-      <c r="D65" s="150">
+      <c r="D65" s="141">
         <v>42565</v>
       </c>
-      <c r="E65" s="128" t="s">
+      <c r="E65" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="F65" s="119" t="s">
+      <c r="F65" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G65" s="128">
+      <c r="G65" s="119">
         <v>6</v>
       </c>
-      <c r="H65" s="152" t="s">
+      <c r="H65" s="143" t="s">
         <v>116</v>
       </c>
-      <c r="I65" s="128">
+      <c r="I65" s="119">
         <v>1</v>
       </c>
-      <c r="J65" s="128" t="s">
+      <c r="J65" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="K65" s="128">
+      <c r="K65" s="119">
         <v>20</v>
       </c>
-      <c r="L65" s="128">
+      <c r="L65" s="119">
         <v>2.66</v>
       </c>
-      <c r="M65" s="129">
+      <c r="M65" s="120">
         <v>0.05</v>
       </c>
-      <c r="N65" s="129"/>
-      <c r="O65" s="130"/>
-      <c r="P65" s="128"/>
-      <c r="Q65" s="129"/>
-      <c r="R65" s="115">
+      <c r="N65" s="120"/>
+      <c r="O65" s="121"/>
+      <c r="P65" s="119"/>
+      <c r="Q65" s="120"/>
+      <c r="R65" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S65" s="129"/>
-      <c r="T65" s="115">
+      <c r="S65" s="120"/>
+      <c r="T65" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U65" s="129"/>
-      <c r="V65" s="115">
+      <c r="U65" s="120"/>
+      <c r="V65" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W65" s="129"/>
-      <c r="X65" s="115">
+      <c r="W65" s="120"/>
+      <c r="X65" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y65" s="129"/>
-      <c r="Z65" s="115">
+      <c r="Y65" s="120"/>
+      <c r="Z65" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA65" s="129"/>
-      <c r="AB65" s="115">
+      <c r="AA65" s="120"/>
+      <c r="AB65" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC65" s="129"/>
-      <c r="AD65" s="133"/>
-      <c r="AE65" s="133"/>
-      <c r="AF65" s="129"/>
-      <c r="AG65" s="156"/>
-      <c r="AH65" s="156"/>
+      <c r="AC65" s="120"/>
+      <c r="AD65" s="124"/>
+      <c r="AE65" s="124"/>
+      <c r="AF65" s="120"/>
+      <c r="AG65" s="147"/>
+      <c r="AH65" s="147"/>
     </row>
-    <row r="66" spans="1:34" s="127" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="115">
+    <row r="66" spans="1:34" s="118" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="106">
         <v>65</v>
       </c>
-      <c r="B66" s="157">
+      <c r="B66" s="148">
         <v>2.3180000000000001</v>
       </c>
-      <c r="C66" s="149">
+      <c r="C66" s="140">
         <v>2.3119999999999998</v>
       </c>
-      <c r="D66" s="150">
+      <c r="D66" s="141">
         <v>42565</v>
       </c>
-      <c r="E66" s="128" t="s">
+      <c r="E66" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="F66" s="119" t="s">
+      <c r="F66" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G66" s="128">
+      <c r="G66" s="119">
         <v>6</v>
       </c>
-      <c r="H66" s="152" t="s">
+      <c r="H66" s="143" t="s">
         <v>136</v>
       </c>
-      <c r="I66" s="128">
+      <c r="I66" s="119">
         <v>1</v>
       </c>
-      <c r="J66" s="128" t="s">
+      <c r="J66" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="K66" s="128">
+      <c r="K66" s="119">
         <v>20</v>
       </c>
-      <c r="L66" s="128">
+      <c r="L66" s="119">
         <v>2.4900000000000002</v>
       </c>
-      <c r="M66" s="129">
+      <c r="M66" s="120">
         <v>0.05</v>
       </c>
-      <c r="N66" s="129"/>
-      <c r="O66" s="130"/>
-      <c r="P66" s="128"/>
-      <c r="Q66" s="129"/>
-      <c r="R66" s="115">
+      <c r="N66" s="120"/>
+      <c r="O66" s="121"/>
+      <c r="P66" s="119"/>
+      <c r="Q66" s="120"/>
+      <c r="R66" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S66" s="129"/>
-      <c r="T66" s="115">
+      <c r="S66" s="120"/>
+      <c r="T66" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U66" s="129"/>
-      <c r="V66" s="115">
+      <c r="U66" s="120"/>
+      <c r="V66" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W66" s="129"/>
-      <c r="X66" s="115">
+      <c r="W66" s="120"/>
+      <c r="X66" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y66" s="129"/>
-      <c r="Z66" s="115">
+      <c r="Y66" s="120"/>
+      <c r="Z66" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA66" s="129"/>
-      <c r="AB66" s="115">
+      <c r="AA66" s="120"/>
+      <c r="AB66" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC66" s="129"/>
-      <c r="AD66" s="133"/>
-      <c r="AE66" s="133"/>
-      <c r="AF66" s="129"/>
-      <c r="AG66" s="156"/>
-      <c r="AH66" s="156"/>
+      <c r="AC66" s="120"/>
+      <c r="AD66" s="124"/>
+      <c r="AE66" s="124"/>
+      <c r="AF66" s="120"/>
+      <c r="AG66" s="147"/>
+      <c r="AH66" s="147"/>
     </row>
-    <row r="67" spans="1:34" s="127" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="115">
+    <row r="67" spans="1:34" s="118" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="106">
         <v>66</v>
       </c>
-      <c r="B67" s="157">
+      <c r="B67" s="148">
         <v>2.3180000000000001</v>
       </c>
-      <c r="C67" s="149">
+      <c r="C67" s="140">
         <v>2.3220000000000001</v>
       </c>
-      <c r="D67" s="150">
+      <c r="D67" s="141">
         <v>42565</v>
       </c>
-      <c r="E67" s="128" t="s">
+      <c r="E67" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="F67" s="119" t="s">
+      <c r="F67" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G67" s="128">
+      <c r="G67" s="119">
         <v>6</v>
       </c>
-      <c r="H67" s="152" t="s">
+      <c r="H67" s="143" t="s">
         <v>136</v>
       </c>
-      <c r="I67" s="128">
+      <c r="I67" s="119">
         <v>1.5</v>
       </c>
-      <c r="J67" s="128" t="s">
+      <c r="J67" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="K67" s="128">
+      <c r="K67" s="119">
         <v>20</v>
       </c>
-      <c r="L67" s="128">
+      <c r="L67" s="119">
         <v>2.35</v>
       </c>
-      <c r="M67" s="129">
+      <c r="M67" s="120">
         <v>0.05</v>
       </c>
-      <c r="N67" s="129"/>
-      <c r="O67" s="130"/>
-      <c r="P67" s="128"/>
-      <c r="Q67" s="129"/>
-      <c r="R67" s="115">
+      <c r="N67" s="120"/>
+      <c r="O67" s="121"/>
+      <c r="P67" s="119"/>
+      <c r="Q67" s="120"/>
+      <c r="R67" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S67" s="129"/>
-      <c r="T67" s="115">
+      <c r="S67" s="120"/>
+      <c r="T67" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U67" s="129"/>
-      <c r="V67" s="115">
+      <c r="U67" s="120"/>
+      <c r="V67" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W67" s="129"/>
-      <c r="X67" s="115">
+      <c r="W67" s="120"/>
+      <c r="X67" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y67" s="129"/>
-      <c r="Z67" s="115">
+      <c r="Y67" s="120"/>
+      <c r="Z67" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA67" s="129"/>
-      <c r="AB67" s="115">
+      <c r="AA67" s="120"/>
+      <c r="AB67" s="106">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC67" s="129"/>
-      <c r="AD67" s="133"/>
-      <c r="AE67" s="133"/>
-      <c r="AF67" s="129"/>
-      <c r="AG67" s="156"/>
-      <c r="AH67" s="156"/>
+      <c r="AC67" s="120"/>
+      <c r="AD67" s="124"/>
+      <c r="AE67" s="124"/>
+      <c r="AF67" s="120"/>
+      <c r="AG67" s="147"/>
+      <c r="AH67" s="147"/>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A68" s="29">
@@ -10672,325 +10768,325 @@
       <c r="AG76" s="80"/>
       <c r="AH76" s="80"/>
     </row>
-    <row r="77" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="29">
+    <row r="77" spans="1:34" s="170" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="173">
         <v>76</v>
       </c>
-      <c r="B77" s="75">
+      <c r="B77" s="174">
         <v>2.5</v>
       </c>
-      <c r="C77" s="74">
+      <c r="C77" s="175">
         <v>2.5249999999999999</v>
       </c>
-      <c r="D77" s="57">
+      <c r="D77" s="176">
         <v>42569</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" s="177" t="s">
         <v>132</v>
       </c>
-      <c r="F77" s="13" t="s">
+      <c r="F77" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G77" s="177">
         <v>5</v>
       </c>
-      <c r="H77" s="82" t="s">
+      <c r="H77" s="178" t="s">
         <v>136</v>
       </c>
-      <c r="I77" s="14">
+      <c r="I77" s="177">
         <v>0.4</v>
       </c>
-      <c r="J77" s="14" t="s">
+      <c r="J77" s="177" t="s">
         <v>133</v>
       </c>
-      <c r="K77" s="14">
+      <c r="K77" s="177">
         <v>20</v>
       </c>
-      <c r="L77" s="14">
+      <c r="L77" s="177">
         <v>6.3520000000000003</v>
       </c>
-      <c r="M77" s="15">
+      <c r="M77" s="179">
         <v>0.05</v>
       </c>
-      <c r="N77" s="15"/>
-      <c r="O77" s="49"/>
-      <c r="P77" s="14"/>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="29">
+      <c r="N77" s="179"/>
+      <c r="O77" s="180"/>
+      <c r="P77" s="177"/>
+      <c r="Q77" s="179"/>
+      <c r="R77" s="173">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S77" s="15"/>
-      <c r="T77" s="29">
+      <c r="S77" s="179"/>
+      <c r="T77" s="173">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U77" s="15"/>
-      <c r="V77" s="29">
+      <c r="U77" s="179"/>
+      <c r="V77" s="173">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W77" s="15"/>
-      <c r="X77" s="29">
+      <c r="W77" s="179"/>
+      <c r="X77" s="173">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y77" s="15"/>
-      <c r="Z77" s="29">
+      <c r="Y77" s="179"/>
+      <c r="Z77" s="173">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA77" s="15"/>
-      <c r="AB77" s="29">
+      <c r="AA77" s="179"/>
+      <c r="AB77" s="173">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC77" s="15"/>
-      <c r="AD77" s="76"/>
-      <c r="AE77" s="76"/>
-      <c r="AF77" s="15"/>
-      <c r="AG77" s="80"/>
-      <c r="AH77" s="80"/>
+      <c r="AC77" s="179"/>
+      <c r="AD77" s="181"/>
+      <c r="AE77" s="181"/>
+      <c r="AF77" s="179"/>
+      <c r="AG77" s="182"/>
+      <c r="AH77" s="182"/>
     </row>
-    <row r="78" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A78" s="29">
+    <row r="78" spans="1:34" s="170" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="173">
         <v>77</v>
       </c>
-      <c r="B78" s="75">
+      <c r="B78" s="174">
         <v>2.5</v>
       </c>
-      <c r="C78" s="74">
+      <c r="C78" s="175">
         <v>2.5449999999999999</v>
       </c>
-      <c r="D78" s="57">
+      <c r="D78" s="176">
         <v>42569</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="177" t="s">
         <v>132</v>
       </c>
-      <c r="F78" s="13" t="s">
+      <c r="F78" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G78" s="177">
         <v>5</v>
       </c>
-      <c r="H78" s="82" t="s">
+      <c r="H78" s="178" t="s">
         <v>136</v>
       </c>
-      <c r="I78" s="14">
+      <c r="I78" s="177">
         <v>0.6</v>
       </c>
-      <c r="J78" s="14" t="s">
+      <c r="J78" s="177" t="s">
         <v>133</v>
       </c>
-      <c r="K78" s="14">
+      <c r="K78" s="177">
         <v>20</v>
       </c>
-      <c r="L78" s="14">
+      <c r="L78" s="177">
         <v>6.24</v>
       </c>
-      <c r="M78" s="15">
+      <c r="M78" s="179">
         <v>0.05</v>
       </c>
-      <c r="N78" s="15"/>
-      <c r="O78" s="49"/>
-      <c r="P78" s="14"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="29">
+      <c r="N78" s="179"/>
+      <c r="O78" s="180"/>
+      <c r="P78" s="177"/>
+      <c r="Q78" s="179"/>
+      <c r="R78" s="173">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S78" s="15"/>
-      <c r="T78" s="29">
+      <c r="S78" s="179"/>
+      <c r="T78" s="173">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U78" s="15"/>
-      <c r="V78" s="29">
+      <c r="U78" s="179"/>
+      <c r="V78" s="173">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W78" s="15"/>
-      <c r="X78" s="29">
+      <c r="W78" s="179"/>
+      <c r="X78" s="173">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y78" s="15"/>
-      <c r="Z78" s="29">
+      <c r="Y78" s="179"/>
+      <c r="Z78" s="173">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA78" s="15"/>
-      <c r="AB78" s="29">
+      <c r="AA78" s="179"/>
+      <c r="AB78" s="173">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC78" s="15"/>
-      <c r="AD78" s="76"/>
-      <c r="AE78" s="76"/>
-      <c r="AF78" s="15"/>
-      <c r="AG78" s="80"/>
-      <c r="AH78" s="80"/>
+      <c r="AC78" s="179"/>
+      <c r="AD78" s="181"/>
+      <c r="AE78" s="181"/>
+      <c r="AF78" s="179"/>
+      <c r="AG78" s="182"/>
+      <c r="AH78" s="182"/>
     </row>
-    <row r="79" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="29">
+    <row r="79" spans="1:34" s="170" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="173">
         <v>78</v>
       </c>
-      <c r="B79" s="75">
+      <c r="B79" s="174">
         <v>2.5</v>
       </c>
-      <c r="C79" s="74">
+      <c r="C79" s="175">
         <v>2.5649999999999999</v>
       </c>
-      <c r="D79" s="57">
+      <c r="D79" s="176">
         <v>42569</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="177" t="s">
         <v>132</v>
       </c>
-      <c r="F79" s="13" t="s">
+      <c r="F79" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="G79" s="14">
+      <c r="G79" s="177">
         <v>5</v>
       </c>
-      <c r="H79" s="82" t="s">
+      <c r="H79" s="178" t="s">
         <v>136</v>
       </c>
-      <c r="I79" s="14">
+      <c r="I79" s="177">
         <v>0.6</v>
       </c>
-      <c r="J79" s="14" t="s">
+      <c r="J79" s="177" t="s">
         <v>133</v>
       </c>
-      <c r="K79" s="14">
+      <c r="K79" s="177">
         <v>2</v>
       </c>
-      <c r="L79" s="14">
+      <c r="L79" s="177">
         <v>6.33</v>
       </c>
-      <c r="M79" s="15">
+      <c r="M79" s="179">
         <v>0.5</v>
       </c>
-      <c r="N79" s="15"/>
-      <c r="O79" s="49"/>
-      <c r="P79" s="14"/>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="29">
+      <c r="N79" s="179"/>
+      <c r="O79" s="180"/>
+      <c r="P79" s="177"/>
+      <c r="Q79" s="179"/>
+      <c r="R79" s="173">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S79" s="15"/>
-      <c r="T79" s="29">
+      <c r="S79" s="179"/>
+      <c r="T79" s="173">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U79" s="15"/>
-      <c r="V79" s="29">
+      <c r="U79" s="179"/>
+      <c r="V79" s="173">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W79" s="15"/>
-      <c r="X79" s="29">
+      <c r="W79" s="179"/>
+      <c r="X79" s="173">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y79" s="15"/>
-      <c r="Z79" s="29">
+      <c r="Y79" s="179"/>
+      <c r="Z79" s="173">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA79" s="15"/>
-      <c r="AB79" s="29">
+      <c r="AA79" s="179"/>
+      <c r="AB79" s="173">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC79" s="15"/>
-      <c r="AD79" s="76"/>
-      <c r="AE79" s="76"/>
-      <c r="AF79" s="15"/>
-      <c r="AG79" s="80"/>
-      <c r="AH79" s="80"/>
+      <c r="AC79" s="179"/>
+      <c r="AD79" s="181"/>
+      <c r="AE79" s="181"/>
+      <c r="AF79" s="179"/>
+      <c r="AG79" s="182"/>
+      <c r="AH79" s="182"/>
     </row>
-    <row r="80" spans="1:34" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A80" s="29">
+    <row r="80" spans="1:34" s="170" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="173">
         <v>79</v>
       </c>
-      <c r="B80" s="75">
+      <c r="B80" s="174">
         <v>2.5</v>
       </c>
-      <c r="C80" s="74">
+      <c r="C80" s="175">
         <v>2.585</v>
       </c>
-      <c r="D80" s="57">
+      <c r="D80" s="176">
         <v>42569</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="177" t="s">
         <v>132</v>
       </c>
-      <c r="F80" s="13" t="s">
+      <c r="F80" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G80" s="177">
         <v>5</v>
       </c>
-      <c r="H80" s="82" t="s">
+      <c r="H80" s="178" t="s">
         <v>136</v>
       </c>
-      <c r="I80" s="14">
+      <c r="I80" s="177">
         <v>0.6</v>
       </c>
-      <c r="J80" s="14" t="s">
+      <c r="J80" s="177" t="s">
         <v>133</v>
       </c>
-      <c r="K80" s="14">
+      <c r="K80" s="177">
         <v>200</v>
       </c>
-      <c r="L80" s="14">
+      <c r="L80" s="177">
         <v>6.26</v>
       </c>
-      <c r="M80" s="15">
+      <c r="M80" s="179">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N80" s="15"/>
-      <c r="O80" s="49"/>
-      <c r="P80" s="14"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="29">
+      <c r="N80" s="179"/>
+      <c r="O80" s="180"/>
+      <c r="P80" s="177"/>
+      <c r="Q80" s="179"/>
+      <c r="R80" s="173">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Min Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="S80" s="15"/>
-      <c r="T80" s="29">
+      <c r="S80" s="179"/>
+      <c r="T80" s="173">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Dot         pC]]*Table2[[#This Row],[Max Dot DF]]</f>
         <v>0</v>
       </c>
-      <c r="U80" s="15"/>
-      <c r="V80" s="29">
+      <c r="U80" s="179"/>
+      <c r="V80" s="173">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="W80" s="15"/>
-      <c r="X80" s="29">
+      <c r="W80" s="179"/>
+      <c r="X80" s="173">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Line μC/cm]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Line DF]]</f>
         <v>0</v>
       </c>
-      <c r="Y80" s="15"/>
-      <c r="Z80" s="29">
+      <c r="Y80" s="179"/>
+      <c r="Z80" s="173">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Min Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AA80" s="15"/>
-      <c r="AB80" s="29">
+      <c r="AA80" s="179"/>
+      <c r="AB80" s="173">
         <f>Table2[[#This Row],[Design dose factor]]*Table2[[#This Row],[Loop factor]]*Table2[[#This Row],[Area μC/cm^2]]*Table2[[#This Row],[Area/Line step size (𝝁m)]]*Table2[[#This Row],[Max Area DF]]</f>
         <v>0</v>
       </c>
-      <c r="AC80" s="15"/>
-      <c r="AD80" s="76"/>
-      <c r="AE80" s="76"/>
-      <c r="AF80" s="15"/>
-      <c r="AG80" s="80"/>
-      <c r="AH80" s="80"/>
+      <c r="AC80" s="179"/>
+      <c r="AD80" s="181"/>
+      <c r="AE80" s="181"/>
+      <c r="AF80" s="179"/>
+      <c r="AG80" s="182"/>
+      <c r="AH80" s="182"/>
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A81" s="29">
@@ -11873,7 +11969,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="78" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>55</v>
